--- a/note/04.개발 일정.xlsx
+++ b/note/04.개발 일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="11745" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="27840" windowHeight="11745" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="문서 이력 관리" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="77">
   <si>
     <t>문서 이력 관리</t>
   </si>
@@ -215,9 +215,6 @@
     <t>기능파악</t>
   </si>
   <si>
-    <t>츄라이</t>
-  </si>
-  <si>
     <t>인트로사진
 글씨체
 등급사진(계란 - 병아리 - 닭)
@@ -254,14 +251,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입 및 로그인기능 구현</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>강사 등록</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>강의 개설</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -279,12 +268,28 @@
 결제 기능</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>6주차</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝스 구성(</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면 개발</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃프런….</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -398,8 +403,16 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,12 +493,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,7 +540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1107,11 +1114,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1169,16 +1325,94 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1192,10 +1426,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1205,196 +1435,137 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1696,12 +1867,12 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
@@ -1898,64 +2069,64 @@
       <c r="D6" s="12"/>
     </row>
     <row r="8" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="50" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="50" t="s">
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="50" t="s">
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="50" t="s">
+      <c r="R8" s="98"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="50" t="s">
+      <c r="W8" s="98"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="99"/>
+      <c r="AA8" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="47"/>
-      <c r="AF8" s="50" t="s">
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="98"/>
+      <c r="AE8" s="99"/>
+      <c r="AF8" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="50" t="s">
+      <c r="AG8" s="98"/>
+      <c r="AH8" s="98"/>
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="99"/>
+      <c r="AK8" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="AL8" s="47"/>
+      <c r="AL8" s="99"/>
     </row>
     <row r="9" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B9" s="41"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="42"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="17" t="s">
         <v>29</v>
       </c>
@@ -2060,9 +2231,9 @@
       </c>
     </row>
     <row r="10" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B10" s="43"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="44"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="17">
         <v>21</v>
       </c>
@@ -2167,13 +2338,13 @@
       </c>
     </row>
     <row r="11" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="99"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
@@ -2210,11 +2381,11 @@
       <c r="AL11" s="19"/>
     </row>
     <row r="12" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B12" s="37"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="107"/>
+      <c r="C12" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="47"/>
+      <c r="D12" s="99"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -2251,11 +2422,11 @@
       <c r="AL12" s="19"/>
     </row>
     <row r="13" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B13" s="37"/>
-      <c r="C13" s="56" t="s">
+      <c r="B13" s="107"/>
+      <c r="C13" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="47"/>
+      <c r="D13" s="99"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -2292,11 +2463,11 @@
       <c r="AL13" s="19"/>
     </row>
     <row r="14" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B14" s="38"/>
-      <c r="C14" s="56" t="s">
+      <c r="B14" s="108"/>
+      <c r="C14" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="47"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="22"/>
@@ -2333,10 +2504,10 @@
       <c r="AL14" s="19"/>
     </row>
     <row r="15" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="110" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="24" t="s">
@@ -2378,8 +2549,8 @@
       <c r="AL15" s="19"/>
     </row>
     <row r="16" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
       <c r="D16" s="25" t="s">
         <v>42</v>
       </c>
@@ -2419,8 +2590,8 @@
       <c r="AL16" s="19"/>
     </row>
     <row r="17" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="24" t="s">
         <v>43</v>
       </c>
@@ -2460,8 +2631,8 @@
       <c r="AL17" s="19"/>
     </row>
     <row r="18" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
       <c r="D18" s="24" t="s">
         <v>44</v>
       </c>
@@ -2501,8 +2672,8 @@
       <c r="AL18" s="19"/>
     </row>
     <row r="19" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="108"/>
       <c r="D19" s="24" t="s">
         <v>45</v>
       </c>
@@ -2542,8 +2713,8 @@
       <c r="AL19" s="19"/>
     </row>
     <row r="20" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B20" s="37"/>
-      <c r="C20" s="57" t="s">
+      <c r="B20" s="107"/>
+      <c r="C20" s="110" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="24" t="s">
@@ -2585,8 +2756,8 @@
       <c r="AL20" s="19"/>
     </row>
     <row r="21" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
       <c r="D21" s="25" t="s">
         <v>42</v>
       </c>
@@ -2626,8 +2797,8 @@
       <c r="AL21" s="19"/>
     </row>
     <row r="22" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="24" t="s">
         <v>43</v>
       </c>
@@ -2667,8 +2838,8 @@
       <c r="AL22" s="19"/>
     </row>
     <row r="23" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
       <c r="D23" s="24" t="s">
         <v>44</v>
       </c>
@@ -2708,8 +2879,8 @@
       <c r="AL23" s="19"/>
     </row>
     <row r="24" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="24" t="s">
         <v>45</v>
       </c>
@@ -2749,8 +2920,8 @@
       <c r="AL24" s="19"/>
     </row>
     <row r="25" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B25" s="37"/>
-      <c r="C25" s="57" t="s">
+      <c r="B25" s="107"/>
+      <c r="C25" s="110" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="24" t="s">
@@ -2792,8 +2963,8 @@
       <c r="AL25" s="19"/>
     </row>
     <row r="26" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="25" t="s">
         <v>42</v>
       </c>
@@ -2833,8 +3004,8 @@
       <c r="AL26" s="19"/>
     </row>
     <row r="27" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
       <c r="D27" s="24" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3045,8 @@
       <c r="AL27" s="19"/>
     </row>
     <row r="28" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
       <c r="D28" s="24" t="s">
         <v>44</v>
       </c>
@@ -2915,8 +3086,8 @@
       <c r="AL28" s="19"/>
     </row>
     <row r="29" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="24" t="s">
         <v>45</v>
       </c>
@@ -2956,8 +3127,8 @@
       <c r="AL29" s="19"/>
     </row>
     <row r="30" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B30" s="37"/>
-      <c r="C30" s="57" t="s">
+      <c r="B30" s="107"/>
+      <c r="C30" s="110" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="24" t="s">
@@ -2999,8 +3170,8 @@
       <c r="AL30" s="19"/>
     </row>
     <row r="31" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
       <c r="D31" s="25" t="s">
         <v>42</v>
       </c>
@@ -3040,8 +3211,8 @@
       <c r="AL31" s="19"/>
     </row>
     <row r="32" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
       <c r="D32" s="24" t="s">
         <v>43</v>
       </c>
@@ -3081,8 +3252,8 @@
       <c r="AL32" s="19"/>
     </row>
     <row r="33" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107"/>
       <c r="D33" s="24" t="s">
         <v>44</v>
       </c>
@@ -3122,8 +3293,8 @@
       <c r="AL33" s="19"/>
     </row>
     <row r="34" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="108"/>
       <c r="D34" s="24" t="s">
         <v>45</v>
       </c>
@@ -3163,8 +3334,8 @@
       <c r="AL34" s="19"/>
     </row>
     <row r="35" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B35" s="37"/>
-      <c r="C35" s="57" t="s">
+      <c r="B35" s="107"/>
+      <c r="C35" s="110" t="s">
         <v>49</v>
       </c>
       <c r="D35" s="24" t="s">
@@ -3206,8 +3377,8 @@
       <c r="AL35" s="19"/>
     </row>
     <row r="36" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="107"/>
       <c r="D36" s="25" t="s">
         <v>42</v>
       </c>
@@ -3247,8 +3418,8 @@
       <c r="AL36" s="19"/>
     </row>
     <row r="37" spans="2:38" ht="12.75">
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="107"/>
       <c r="D37" s="24" t="s">
         <v>43</v>
       </c>
@@ -3288,8 +3459,8 @@
       <c r="AL37" s="19"/>
     </row>
     <row r="38" spans="2:38" ht="12.75">
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="107"/>
       <c r="D38" s="24" t="s">
         <v>44</v>
       </c>
@@ -3329,8 +3500,8 @@
       <c r="AL38" s="19"/>
     </row>
     <row r="39" spans="2:38" ht="12.75">
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
       <c r="D39" s="24" t="s">
         <v>45</v>
       </c>
@@ -3370,10 +3541,10 @@
       <c r="AL39" s="19"/>
     </row>
     <row r="40" spans="2:38" ht="12.75">
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="40"/>
+      <c r="C40" s="92"/>
       <c r="D40" s="27" t="s">
         <v>41</v>
       </c>
@@ -3413,8 +3584,8 @@
       <c r="AL40" s="19"/>
     </row>
     <row r="41" spans="2:38" ht="12.75">
-      <c r="B41" s="41"/>
-      <c r="C41" s="42"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="94"/>
       <c r="D41" s="28" t="s">
         <v>42</v>
       </c>
@@ -3454,8 +3625,8 @@
       <c r="AL41" s="19"/>
     </row>
     <row r="42" spans="2:38" ht="12.75">
-      <c r="B42" s="41"/>
-      <c r="C42" s="42"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="94"/>
       <c r="D42" s="27" t="s">
         <v>43</v>
       </c>
@@ -3495,8 +3666,8 @@
       <c r="AL42" s="19"/>
     </row>
     <row r="43" spans="2:38" ht="12.75">
-      <c r="B43" s="43"/>
-      <c r="C43" s="44"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="96"/>
       <c r="D43" s="27" t="s">
         <v>45</v>
       </c>
@@ -3536,11 +3707,11 @@
       <c r="AL43" s="19"/>
     </row>
     <row r="44" spans="2:38" ht="12.75">
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="47"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="99"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
@@ -3616,48 +3787,48 @@
       <c r="D107" s="12"/>
     </row>
     <row r="109" spans="2:38" ht="15">
-      <c r="B109" s="51" t="s">
+      <c r="B109" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="C109" s="52"/>
-      <c r="D109" s="40"/>
-      <c r="E109" s="50"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="50" t="s">
+      <c r="C109" s="102"/>
+      <c r="D109" s="92"/>
+      <c r="E109" s="100"/>
+      <c r="F109" s="99"/>
+      <c r="G109" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="H109" s="46"/>
-      <c r="I109" s="46"/>
-      <c r="J109" s="46"/>
-      <c r="K109" s="47"/>
-      <c r="L109" s="50" t="s">
+      <c r="H109" s="98"/>
+      <c r="I109" s="98"/>
+      <c r="J109" s="98"/>
+      <c r="K109" s="99"/>
+      <c r="L109" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="M109" s="46"/>
-      <c r="N109" s="46"/>
-      <c r="O109" s="46"/>
-      <c r="P109" s="47"/>
-      <c r="Q109" s="50" t="s">
+      <c r="M109" s="98"/>
+      <c r="N109" s="98"/>
+      <c r="O109" s="98"/>
+      <c r="P109" s="99"/>
+      <c r="Q109" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="R109" s="46"/>
-      <c r="S109" s="46"/>
-      <c r="T109" s="46"/>
-      <c r="U109" s="47"/>
-      <c r="V109" s="50" t="s">
+      <c r="R109" s="98"/>
+      <c r="S109" s="98"/>
+      <c r="T109" s="98"/>
+      <c r="U109" s="99"/>
+      <c r="V109" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="W109" s="46"/>
-      <c r="X109" s="46"/>
-      <c r="Y109" s="46"/>
-      <c r="Z109" s="47"/>
-      <c r="AA109" s="50" t="s">
+      <c r="W109" s="98"/>
+      <c r="X109" s="98"/>
+      <c r="Y109" s="98"/>
+      <c r="Z109" s="99"/>
+      <c r="AA109" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="AB109" s="46"/>
-      <c r="AC109" s="46"/>
-      <c r="AD109" s="46"/>
-      <c r="AE109" s="47"/>
+      <c r="AB109" s="98"/>
+      <c r="AC109" s="98"/>
+      <c r="AD109" s="98"/>
+      <c r="AE109" s="99"/>
       <c r="AF109" s="30"/>
       <c r="AG109" s="30"/>
       <c r="AH109" s="30"/>
@@ -3667,9 +3838,9 @@
       <c r="AL109" s="30"/>
     </row>
     <row r="110" spans="2:38" ht="15">
-      <c r="B110" s="41"/>
-      <c r="C110" s="53"/>
-      <c r="D110" s="42"/>
+      <c r="B110" s="93"/>
+      <c r="C110" s="103"/>
+      <c r="D110" s="94"/>
       <c r="E110" s="17" t="s">
         <v>29</v>
       </c>
@@ -3760,9 +3931,9 @@
       <c r="AL110" s="30"/>
     </row>
     <row r="111" spans="2:38" ht="15">
-      <c r="B111" s="43"/>
-      <c r="C111" s="54"/>
-      <c r="D111" s="44"/>
+      <c r="B111" s="95"/>
+      <c r="C111" s="104"/>
+      <c r="D111" s="96"/>
       <c r="E111" s="17">
         <v>25</v>
       </c>
@@ -3853,13 +4024,13 @@
       <c r="AL111" s="30"/>
     </row>
     <row r="112" spans="2:38" ht="12.75">
-      <c r="B112" s="55" t="s">
+      <c r="B112" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="C112" s="48" t="s">
+      <c r="C112" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="D112" s="47"/>
+      <c r="D112" s="99"/>
       <c r="E112" s="18"/>
       <c r="F112" s="18"/>
       <c r="G112" s="18"/>
@@ -3889,11 +4060,11 @@
       <c r="AE112" s="19"/>
     </row>
     <row r="113" spans="2:31" ht="12.75">
-      <c r="B113" s="37"/>
-      <c r="C113" s="48" t="s">
+      <c r="B113" s="107"/>
+      <c r="C113" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="D113" s="47"/>
+      <c r="D113" s="99"/>
       <c r="E113" s="21"/>
       <c r="F113" s="21"/>
       <c r="G113" s="21"/>
@@ -3923,11 +4094,11 @@
       <c r="AE113" s="19"/>
     </row>
     <row r="114" spans="2:31" ht="12.75">
-      <c r="B114" s="37"/>
-      <c r="C114" s="48" t="s">
+      <c r="B114" s="107"/>
+      <c r="C114" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="D114" s="47"/>
+      <c r="D114" s="99"/>
       <c r="E114" s="23"/>
       <c r="F114" s="23"/>
       <c r="G114" s="23"/>
@@ -3957,11 +4128,11 @@
       <c r="AE114" s="19"/>
     </row>
     <row r="115" spans="2:31" ht="12.75">
-      <c r="B115" s="38"/>
-      <c r="C115" s="48" t="s">
+      <c r="B115" s="108"/>
+      <c r="C115" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="D115" s="47"/>
+      <c r="D115" s="99"/>
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
       <c r="G115" s="22"/>
@@ -3991,10 +4162,10 @@
       <c r="AE115" s="19"/>
     </row>
     <row r="116" spans="2:31" ht="12.75">
-      <c r="B116" s="49" t="s">
+      <c r="B116" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="C116" s="49" t="s">
+      <c r="C116" s="109" t="s">
         <v>57</v>
       </c>
       <c r="D116" s="24" t="s">
@@ -4029,8 +4200,8 @@
       <c r="AE116" s="19"/>
     </row>
     <row r="117" spans="2:31" ht="12.75">
-      <c r="B117" s="37"/>
-      <c r="C117" s="37"/>
+      <c r="B117" s="107"/>
+      <c r="C117" s="107"/>
       <c r="D117" s="25" t="s">
         <v>42</v>
       </c>
@@ -4063,8 +4234,8 @@
       <c r="AE117" s="19"/>
     </row>
     <row r="118" spans="2:31" ht="12.75">
-      <c r="B118" s="37"/>
-      <c r="C118" s="37"/>
+      <c r="B118" s="107"/>
+      <c r="C118" s="107"/>
       <c r="D118" s="24" t="s">
         <v>43</v>
       </c>
@@ -4097,8 +4268,8 @@
       <c r="AE118" s="19"/>
     </row>
     <row r="119" spans="2:31" ht="12.75">
-      <c r="B119" s="37"/>
-      <c r="C119" s="37"/>
+      <c r="B119" s="107"/>
+      <c r="C119" s="107"/>
       <c r="D119" s="24" t="s">
         <v>44</v>
       </c>
@@ -4131,8 +4302,8 @@
       <c r="AE119" s="19"/>
     </row>
     <row r="120" spans="2:31" ht="12.75">
-      <c r="B120" s="37"/>
-      <c r="C120" s="38"/>
+      <c r="B120" s="107"/>
+      <c r="C120" s="108"/>
       <c r="D120" s="24" t="s">
         <v>45</v>
       </c>
@@ -4165,8 +4336,8 @@
       <c r="AE120" s="19"/>
     </row>
     <row r="121" spans="2:31" ht="12.75">
-      <c r="B121" s="37"/>
-      <c r="C121" s="49" t="s">
+      <c r="B121" s="107"/>
+      <c r="C121" s="109" t="s">
         <v>58</v>
       </c>
       <c r="D121" s="24" t="s">
@@ -4201,8 +4372,8 @@
       <c r="AE121" s="19"/>
     </row>
     <row r="122" spans="2:31" ht="12.75">
-      <c r="B122" s="37"/>
-      <c r="C122" s="37"/>
+      <c r="B122" s="107"/>
+      <c r="C122" s="107"/>
       <c r="D122" s="25" t="s">
         <v>42</v>
       </c>
@@ -4235,8 +4406,8 @@
       <c r="AE122" s="19"/>
     </row>
     <row r="123" spans="2:31" ht="12.75">
-      <c r="B123" s="37"/>
-      <c r="C123" s="37"/>
+      <c r="B123" s="107"/>
+      <c r="C123" s="107"/>
       <c r="D123" s="24" t="s">
         <v>43</v>
       </c>
@@ -4269,8 +4440,8 @@
       <c r="AE123" s="19"/>
     </row>
     <row r="124" spans="2:31" ht="12.75">
-      <c r="B124" s="37"/>
-      <c r="C124" s="37"/>
+      <c r="B124" s="107"/>
+      <c r="C124" s="107"/>
       <c r="D124" s="24" t="s">
         <v>44</v>
       </c>
@@ -4303,8 +4474,8 @@
       <c r="AE124" s="19"/>
     </row>
     <row r="125" spans="2:31" ht="12.75">
-      <c r="B125" s="37"/>
-      <c r="C125" s="38"/>
+      <c r="B125" s="107"/>
+      <c r="C125" s="108"/>
       <c r="D125" s="24" t="s">
         <v>45</v>
       </c>
@@ -4337,8 +4508,8 @@
       <c r="AE125" s="19"/>
     </row>
     <row r="126" spans="2:31" ht="12.75">
-      <c r="B126" s="37"/>
-      <c r="C126" s="49" t="s">
+      <c r="B126" s="107"/>
+      <c r="C126" s="109" t="s">
         <v>59</v>
       </c>
       <c r="D126" s="24" t="s">
@@ -4373,8 +4544,8 @@
       <c r="AE126" s="19"/>
     </row>
     <row r="127" spans="2:31" ht="12.75">
-      <c r="B127" s="37"/>
-      <c r="C127" s="37"/>
+      <c r="B127" s="107"/>
+      <c r="C127" s="107"/>
       <c r="D127" s="25" t="s">
         <v>42</v>
       </c>
@@ -4407,8 +4578,8 @@
       <c r="AE127" s="19"/>
     </row>
     <row r="128" spans="2:31" ht="12.75">
-      <c r="B128" s="37"/>
-      <c r="C128" s="37"/>
+      <c r="B128" s="107"/>
+      <c r="C128" s="107"/>
       <c r="D128" s="24" t="s">
         <v>43</v>
       </c>
@@ -4441,8 +4612,8 @@
       <c r="AE128" s="19"/>
     </row>
     <row r="129" spans="2:38" ht="12.75">
-      <c r="B129" s="37"/>
-      <c r="C129" s="37"/>
+      <c r="B129" s="107"/>
+      <c r="C129" s="107"/>
       <c r="D129" s="24" t="s">
         <v>44</v>
       </c>
@@ -4475,8 +4646,8 @@
       <c r="AE129" s="19"/>
     </row>
     <row r="130" spans="2:38" ht="12.75">
-      <c r="B130" s="37"/>
-      <c r="C130" s="38"/>
+      <c r="B130" s="107"/>
+      <c r="C130" s="108"/>
       <c r="D130" s="24" t="s">
         <v>45</v>
       </c>
@@ -4509,8 +4680,8 @@
       <c r="AE130" s="19"/>
     </row>
     <row r="131" spans="2:38" ht="12.75">
-      <c r="B131" s="37"/>
-      <c r="C131" s="36" t="s">
+      <c r="B131" s="107"/>
+      <c r="C131" s="112" t="s">
         <v>60</v>
       </c>
       <c r="D131" s="24" t="s">
@@ -4545,8 +4716,8 @@
       <c r="AE131" s="19"/>
     </row>
     <row r="132" spans="2:38" ht="12.75">
-      <c r="B132" s="37"/>
-      <c r="C132" s="37"/>
+      <c r="B132" s="107"/>
+      <c r="C132" s="107"/>
       <c r="D132" s="25" t="s">
         <v>42</v>
       </c>
@@ -4579,8 +4750,8 @@
       <c r="AE132" s="19"/>
     </row>
     <row r="133" spans="2:38" ht="12.75">
-      <c r="B133" s="37"/>
-      <c r="C133" s="37"/>
+      <c r="B133" s="107"/>
+      <c r="C133" s="107"/>
       <c r="D133" s="24" t="s">
         <v>43</v>
       </c>
@@ -4613,8 +4784,8 @@
       <c r="AE133" s="19"/>
     </row>
     <row r="134" spans="2:38" ht="12.75">
-      <c r="B134" s="37"/>
-      <c r="C134" s="37"/>
+      <c r="B134" s="107"/>
+      <c r="C134" s="107"/>
       <c r="D134" s="24" t="s">
         <v>44</v>
       </c>
@@ -4647,8 +4818,8 @@
       <c r="AE134" s="19"/>
     </row>
     <row r="135" spans="2:38" ht="12.75">
-      <c r="B135" s="37"/>
-      <c r="C135" s="38"/>
+      <c r="B135" s="107"/>
+      <c r="C135" s="108"/>
       <c r="D135" s="24" t="s">
         <v>45</v>
       </c>
@@ -4681,8 +4852,8 @@
       <c r="AE135" s="19"/>
     </row>
     <row r="136" spans="2:38" ht="12.75">
-      <c r="B136" s="37"/>
-      <c r="C136" s="36" t="s">
+      <c r="B136" s="107"/>
+      <c r="C136" s="112" t="s">
         <v>61</v>
       </c>
       <c r="D136" s="24" t="s">
@@ -4717,8 +4888,8 @@
       <c r="AE136" s="19"/>
     </row>
     <row r="137" spans="2:38" ht="12.75">
-      <c r="B137" s="37"/>
-      <c r="C137" s="37"/>
+      <c r="B137" s="107"/>
+      <c r="C137" s="107"/>
       <c r="D137" s="25" t="s">
         <v>42</v>
       </c>
@@ -4751,8 +4922,8 @@
       <c r="AE137" s="19"/>
     </row>
     <row r="138" spans="2:38" ht="12.75">
-      <c r="B138" s="37"/>
-      <c r="C138" s="37"/>
+      <c r="B138" s="107"/>
+      <c r="C138" s="107"/>
       <c r="D138" s="24" t="s">
         <v>43</v>
       </c>
@@ -4785,8 +4956,8 @@
       <c r="AE138" s="19"/>
     </row>
     <row r="139" spans="2:38" ht="12.75">
-      <c r="B139" s="37"/>
-      <c r="C139" s="37"/>
+      <c r="B139" s="107"/>
+      <c r="C139" s="107"/>
       <c r="D139" s="24" t="s">
         <v>44</v>
       </c>
@@ -4819,8 +4990,8 @@
       <c r="AE139" s="19"/>
     </row>
     <row r="140" spans="2:38" ht="12.75">
-      <c r="B140" s="37"/>
-      <c r="C140" s="38"/>
+      <c r="B140" s="107"/>
+      <c r="C140" s="108"/>
       <c r="D140" s="24" t="s">
         <v>45</v>
       </c>
@@ -4853,8 +5024,8 @@
       <c r="AE140" s="19"/>
     </row>
     <row r="141" spans="2:38" ht="12.75">
-      <c r="B141" s="37"/>
-      <c r="C141" s="36" t="s">
+      <c r="B141" s="107"/>
+      <c r="C141" s="112" t="s">
         <v>62</v>
       </c>
       <c r="D141" s="24" t="s">
@@ -4889,8 +5060,8 @@
       <c r="AE141" s="19"/>
     </row>
     <row r="142" spans="2:38" ht="12.75">
-      <c r="B142" s="37"/>
-      <c r="C142" s="37"/>
+      <c r="B142" s="107"/>
+      <c r="C142" s="107"/>
       <c r="D142" s="24" t="s">
         <v>63</v>
       </c>
@@ -4923,8 +5094,8 @@
       <c r="AE142" s="19"/>
     </row>
     <row r="143" spans="2:38" ht="12.75">
-      <c r="B143" s="37"/>
-      <c r="C143" s="37"/>
+      <c r="B143" s="107"/>
+      <c r="C143" s="107"/>
       <c r="D143" s="24" t="s">
         <v>44</v>
       </c>
@@ -4964,8 +5135,8 @@
       <c r="AL143" s="31"/>
     </row>
     <row r="144" spans="2:38" ht="12.75">
-      <c r="B144" s="38"/>
-      <c r="C144" s="38"/>
+      <c r="B144" s="108"/>
+      <c r="C144" s="108"/>
       <c r="D144" s="24" t="s">
         <v>45</v>
       </c>
@@ -5005,10 +5176,10 @@
       <c r="AL144" s="32"/>
     </row>
     <row r="145" spans="2:38" ht="12.75">
-      <c r="B145" s="39" t="s">
+      <c r="B145" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C145" s="40"/>
+      <c r="C145" s="92"/>
       <c r="D145" s="27" t="s">
         <v>41</v>
       </c>
@@ -5041,8 +5212,8 @@
       <c r="AE145" s="19"/>
     </row>
     <row r="146" spans="2:38" ht="12.75">
-      <c r="B146" s="41"/>
-      <c r="C146" s="42"/>
+      <c r="B146" s="93"/>
+      <c r="C146" s="94"/>
       <c r="D146" s="28" t="s">
         <v>42</v>
       </c>
@@ -5075,8 +5246,8 @@
       <c r="AE146" s="19"/>
     </row>
     <row r="147" spans="2:38" ht="12.75">
-      <c r="B147" s="41"/>
-      <c r="C147" s="42"/>
+      <c r="B147" s="93"/>
+      <c r="C147" s="94"/>
       <c r="D147" s="27" t="s">
         <v>43</v>
       </c>
@@ -5109,8 +5280,8 @@
       <c r="AE147" s="19"/>
     </row>
     <row r="148" spans="2:38" ht="12.75">
-      <c r="B148" s="43"/>
-      <c r="C148" s="44"/>
+      <c r="B148" s="95"/>
+      <c r="C148" s="96"/>
       <c r="D148" s="27" t="s">
         <v>45</v>
       </c>
@@ -5150,11 +5321,11 @@
       <c r="AL148" s="32"/>
     </row>
     <row r="149" spans="2:38" ht="12.75">
-      <c r="B149" s="45" t="s">
+      <c r="B149" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="C149" s="46"/>
-      <c r="D149" s="47"/>
+      <c r="C149" s="98"/>
+      <c r="D149" s="99"/>
       <c r="E149" s="19"/>
       <c r="F149" s="19"/>
       <c r="G149" s="19"/>
@@ -5185,24 +5356,17 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B40:C43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="G109:K109"/>
-    <mergeCell ref="L109:P109"/>
-    <mergeCell ref="Q109:U109"/>
-    <mergeCell ref="V109:Z109"/>
-    <mergeCell ref="AA109:AE109"/>
-    <mergeCell ref="B109:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="B15:B39"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="C136:C140"/>
+    <mergeCell ref="C141:C144"/>
+    <mergeCell ref="B145:C148"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="B116:B144"/>
+    <mergeCell ref="C116:C120"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="C126:C130"/>
+    <mergeCell ref="C131:C135"/>
     <mergeCell ref="AF8:AJ8"/>
     <mergeCell ref="AK8:AL8"/>
     <mergeCell ref="B8:D10"/>
@@ -5217,17 +5381,24 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C136:C140"/>
-    <mergeCell ref="C141:C144"/>
-    <mergeCell ref="B145:C148"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="B116:B144"/>
-    <mergeCell ref="C116:C120"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="C126:C130"/>
-    <mergeCell ref="C131:C135"/>
+    <mergeCell ref="B15:B39"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="Q109:U109"/>
+    <mergeCell ref="V109:Z109"/>
+    <mergeCell ref="AA109:AE109"/>
+    <mergeCell ref="B109:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="B40:C43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="G109:K109"/>
+    <mergeCell ref="L109:P109"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5241,3270 +5412,3447 @@
   </sheetPr>
   <dimension ref="B2:AH145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.5703125" style="60" customWidth="1"/>
-    <col min="2" max="3" width="12.5703125" style="60"/>
-    <col min="4" max="4" width="22.28515625" style="60" customWidth="1"/>
-    <col min="5" max="29" width="4.140625" style="60" customWidth="1"/>
-    <col min="30" max="33" width="3.85546875" style="60" customWidth="1"/>
-    <col min="34" max="34" width="3" style="60" customWidth="1"/>
-    <col min="35" max="16384" width="12.5703125" style="60"/>
+    <col min="1" max="1" width="0.5703125" style="35" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" style="35"/>
+    <col min="4" max="4" width="22.28515625" style="35" customWidth="1"/>
+    <col min="5" max="29" width="4.140625" style="35" customWidth="1"/>
+    <col min="30" max="34" width="4.140625" style="39" customWidth="1"/>
+    <col min="35" max="16384" width="12.5703125" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="59"/>
+      <c r="C4" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="59"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="59"/>
-    </row>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" spans="2:34" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="8" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="128" t="s">
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="128" t="s">
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="128" t="s">
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="129"/>
-      <c r="R8" s="129"/>
-      <c r="S8" s="130"/>
-      <c r="T8" s="128" t="s">
+      <c r="P8" s="148"/>
+      <c r="Q8" s="148"/>
+      <c r="R8" s="148"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="129"/>
-      <c r="V8" s="129"/>
-      <c r="W8" s="129"/>
-      <c r="X8" s="130"/>
-      <c r="Y8" s="128" t="s">
+      <c r="U8" s="148"/>
+      <c r="V8" s="148"/>
+      <c r="W8" s="148"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="Z8" s="129"/>
-      <c r="AA8" s="129"/>
-      <c r="AB8" s="129"/>
-      <c r="AC8" s="130"/>
-      <c r="AD8" s="69" t="s">
+      <c r="Z8" s="148"/>
+      <c r="AA8" s="148"/>
+      <c r="AB8" s="148"/>
+      <c r="AC8" s="148"/>
+      <c r="AD8" s="169" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE8" s="170"/>
+      <c r="AF8" s="170"/>
+      <c r="AG8" s="170"/>
+      <c r="AH8" s="171"/>
+    </row>
+    <row r="9" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B9" s="121"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="X9" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y9" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA9" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB9" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC9" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD9" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF9" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG9" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH9" s="56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B10" s="131"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="71">
+        <v>23</v>
+      </c>
+      <c r="F10" s="72">
+        <v>24</v>
+      </c>
+      <c r="G10" s="72">
+        <v>25</v>
+      </c>
+      <c r="H10" s="72">
+        <v>26</v>
+      </c>
+      <c r="I10" s="73">
         <v>27</v>
       </c>
-      <c r="AE8" s="70"/>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="70"/>
-    </row>
-    <row r="9" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B9" s="71"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="109" t="s">
+      <c r="J10" s="71">
+        <v>30</v>
+      </c>
+      <c r="K10" s="72">
+        <v>1</v>
+      </c>
+      <c r="L10" s="72">
+        <v>2</v>
+      </c>
+      <c r="M10" s="72">
+        <v>3</v>
+      </c>
+      <c r="N10" s="73">
+        <v>4</v>
+      </c>
+      <c r="O10" s="71">
+        <v>7</v>
+      </c>
+      <c r="P10" s="72">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="72">
+        <v>9</v>
+      </c>
+      <c r="R10" s="72">
+        <v>10</v>
+      </c>
+      <c r="S10" s="73">
+        <v>11</v>
+      </c>
+      <c r="T10" s="71">
+        <v>14</v>
+      </c>
+      <c r="U10" s="72">
+        <v>15</v>
+      </c>
+      <c r="V10" s="72">
+        <v>16</v>
+      </c>
+      <c r="W10" s="72">
+        <v>17</v>
+      </c>
+      <c r="X10" s="73">
+        <v>18</v>
+      </c>
+      <c r="Y10" s="71">
+        <v>21</v>
+      </c>
+      <c r="Z10" s="72">
+        <v>22</v>
+      </c>
+      <c r="AA10" s="72">
+        <v>23</v>
+      </c>
+      <c r="AB10" s="72">
+        <v>24</v>
+      </c>
+      <c r="AC10" s="162">
+        <v>25</v>
+      </c>
+      <c r="AD10" s="71">
+        <v>28</v>
+      </c>
+      <c r="AE10" s="71">
+        <v>29</v>
+      </c>
+      <c r="AF10" s="71">
+        <v>30</v>
+      </c>
+      <c r="AG10" s="71">
         <v>31</v>
       </c>
-      <c r="F9" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="S9" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="T9" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="U9" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="V9" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="X9" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y9" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z9" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA9" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB9" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC9" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD9" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE9" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF9" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG9" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH9" s="74" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:34" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B10" s="132"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="134">
-        <v>23</v>
-      </c>
-      <c r="F10" s="135">
-        <v>24</v>
-      </c>
-      <c r="G10" s="135">
-        <v>25</v>
-      </c>
-      <c r="H10" s="135">
-        <v>26</v>
-      </c>
-      <c r="I10" s="136">
-        <v>27</v>
-      </c>
-      <c r="J10" s="134">
-        <v>30</v>
-      </c>
-      <c r="K10" s="135">
+      <c r="AH10" s="172">
         <v>1</v>
       </c>
-      <c r="L10" s="135">
-        <v>2</v>
-      </c>
-      <c r="M10" s="135">
-        <v>3</v>
-      </c>
-      <c r="N10" s="136">
-        <v>4</v>
-      </c>
-      <c r="O10" s="134">
-        <v>7</v>
-      </c>
-      <c r="P10" s="135">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="135">
-        <v>9</v>
-      </c>
-      <c r="R10" s="135">
-        <v>10</v>
-      </c>
-      <c r="S10" s="136">
-        <v>11</v>
-      </c>
-      <c r="T10" s="134">
-        <v>14</v>
-      </c>
-      <c r="U10" s="135">
-        <v>15</v>
-      </c>
-      <c r="V10" s="135">
-        <v>16</v>
-      </c>
-      <c r="W10" s="135">
-        <v>17</v>
-      </c>
-      <c r="X10" s="136">
-        <v>18</v>
-      </c>
-      <c r="Y10" s="134">
-        <v>21</v>
-      </c>
-      <c r="Z10" s="135">
-        <v>22</v>
-      </c>
-      <c r="AA10" s="135">
-        <v>23</v>
-      </c>
-      <c r="AB10" s="135">
-        <v>24</v>
-      </c>
-      <c r="AC10" s="136">
-        <v>25</v>
-      </c>
-      <c r="AD10" s="74">
-        <v>30</v>
-      </c>
-      <c r="AE10" s="74">
-        <v>31</v>
-      </c>
-      <c r="AF10" s="74">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="74">
-        <v>2</v>
-      </c>
-      <c r="AH10" s="74">
-        <v>3</v>
-      </c>
     </row>
     <row r="11" spans="2:34" ht="17.25" customHeight="1" thickTop="1">
-      <c r="B11" s="148" t="s">
+      <c r="B11" s="150" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="149" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="150"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="154"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="152"/>
-      <c r="S11" s="153"/>
-      <c r="T11" s="154"/>
-      <c r="U11" s="152"/>
-      <c r="V11" s="152"/>
-      <c r="W11" s="152"/>
-      <c r="X11" s="153"/>
-      <c r="Y11" s="154"/>
-      <c r="Z11" s="152"/>
-      <c r="AA11" s="152"/>
-      <c r="AB11" s="152"/>
-      <c r="AC11" s="153"/>
-      <c r="AD11" s="82"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="163"/>
+      <c r="AD11" s="84"/>
       <c r="AE11" s="82"/>
       <c r="AF11" s="82"/>
       <c r="AG11" s="82"/>
-      <c r="AH11" s="82"/>
+      <c r="AH11" s="83"/>
     </row>
     <row r="12" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B12" s="83"/>
-      <c r="C12" s="100" t="s">
+      <c r="B12" s="116"/>
+      <c r="C12" s="135" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="136"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="164"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="57"/>
+    </row>
+    <row r="13" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B13" s="116"/>
+      <c r="C13" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="107"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="112"/>
-      <c r="T12" s="114"/>
-      <c r="U12" s="101"/>
-      <c r="V12" s="101"/>
-      <c r="W12" s="101"/>
-      <c r="X12" s="112"/>
-      <c r="Y12" s="114"/>
-      <c r="Z12" s="101"/>
-      <c r="AA12" s="101"/>
-      <c r="AB12" s="101"/>
-      <c r="AC12" s="112"/>
-      <c r="AD12" s="82"/>
-      <c r="AE12" s="82"/>
-      <c r="AF12" s="82"/>
-      <c r="AG12" s="82"/>
-      <c r="AH12" s="82"/>
-    </row>
-    <row r="13" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B13" s="83"/>
-      <c r="C13" s="100" t="s">
+      <c r="D13" s="136"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="164"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="57"/>
+    </row>
+    <row r="14" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B14" s="116"/>
+      <c r="C14" s="135" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="136"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="164"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="57"/>
+    </row>
+    <row r="15" spans="2:34" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B15" s="144"/>
+      <c r="C15" s="137" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="138"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="80"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="77"/>
+      <c r="AA15" s="77"/>
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="165"/>
+      <c r="AD15" s="76"/>
+      <c r="AE15" s="77"/>
+      <c r="AF15" s="77"/>
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="80"/>
+    </row>
+    <row r="16" spans="2:34" ht="17.25" customHeight="1" thickTop="1">
+      <c r="B16" s="151" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="114"/>
-      <c r="U13" s="101"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="101"/>
-      <c r="X13" s="112"/>
-      <c r="Y13" s="114"/>
-      <c r="Z13" s="101"/>
-      <c r="AA13" s="101"/>
-      <c r="AB13" s="101"/>
-      <c r="AC13" s="112"/>
-      <c r="AD13" s="82"/>
-      <c r="AE13" s="82"/>
-      <c r="AF13" s="82"/>
-      <c r="AG13" s="82"/>
-      <c r="AH13" s="82"/>
-    </row>
-    <row r="14" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B14" s="83"/>
-      <c r="C14" s="100" t="s">
+      <c r="D16" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="70"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="166"/>
+      <c r="AD16" s="70"/>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="69"/>
+    </row>
+    <row r="17" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="164"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="57"/>
+    </row>
+    <row r="18" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="164"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="49"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="57"/>
+    </row>
+    <row r="19" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="49"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="164"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="49"/>
+      <c r="AG19" s="49"/>
+      <c r="AH19" s="57"/>
+    </row>
+    <row r="20" spans="2:34" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B20" s="116"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="165"/>
+      <c r="AD20" s="76"/>
+      <c r="AE20" s="77"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="77"/>
+      <c r="AH20" s="80"/>
+    </row>
+    <row r="21" spans="2:34" ht="17.25" customHeight="1" thickTop="1">
+      <c r="B21" s="116"/>
+      <c r="C21" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="112"/>
-      <c r="T14" s="114"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="112"/>
-      <c r="Y14" s="114"/>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="101"/>
-      <c r="AB14" s="101"/>
-      <c r="AC14" s="112"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="82"/>
-      <c r="AH14" s="82"/>
-    </row>
-    <row r="15" spans="2:34" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B15" s="139"/>
-      <c r="C15" s="155" t="s">
+      <c r="D21" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="70"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="166"/>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="68"/>
+      <c r="AF21" s="68"/>
+      <c r="AG21" s="68"/>
+      <c r="AH21" s="69"/>
+    </row>
+    <row r="22" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="59"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="164"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="49"/>
+      <c r="AG22" s="49"/>
+      <c r="AH22" s="57"/>
+    </row>
+    <row r="23" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="164"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="49"/>
+      <c r="AG23" s="49"/>
+      <c r="AH23" s="57"/>
+    </row>
+    <row r="24" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="164"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="57"/>
+    </row>
+    <row r="25" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B25" s="116"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="49"/>
+      <c r="AC25" s="164"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="49"/>
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="57"/>
+    </row>
+    <row r="26" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B26" s="116"/>
+      <c r="C26" s="145" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="49"/>
+      <c r="AC26" s="164"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="57"/>
+    </row>
+    <row r="27" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="49"/>
+      <c r="AC27" s="164"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="57"/>
+    </row>
+    <row r="28" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="49"/>
+      <c r="AC28" s="164"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="49"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="57"/>
+    </row>
+    <row r="29" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="49"/>
+      <c r="AB29" s="49"/>
+      <c r="AC29" s="164"/>
+      <c r="AD29" s="59"/>
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="49"/>
+      <c r="AG29" s="49"/>
+      <c r="AH29" s="57"/>
+    </row>
+    <row r="30" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B30" s="116"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="49"/>
+      <c r="AB30" s="49"/>
+      <c r="AC30" s="164"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="49"/>
+      <c r="AF30" s="49"/>
+      <c r="AG30" s="49"/>
+      <c r="AH30" s="57"/>
+    </row>
+    <row r="31" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B31" s="116"/>
+      <c r="C31" s="146" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="156"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="142"/>
-      <c r="S15" s="145"/>
-      <c r="T15" s="141"/>
-      <c r="U15" s="142"/>
-      <c r="V15" s="142"/>
-      <c r="W15" s="142"/>
-      <c r="X15" s="145"/>
-      <c r="Y15" s="141"/>
-      <c r="Z15" s="142"/>
-      <c r="AA15" s="142"/>
-      <c r="AB15" s="142"/>
-      <c r="AC15" s="145"/>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="82"/>
-      <c r="AF15" s="82"/>
-      <c r="AG15" s="82"/>
-      <c r="AH15" s="82"/>
-    </row>
-    <row r="16" spans="2:34" ht="17.25" customHeight="1" thickTop="1">
-      <c r="B16" s="146" t="s">
+      <c r="D31" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="59"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="81"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="164"/>
+      <c r="AD31" s="59"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="57"/>
+    </row>
+    <row r="32" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="59"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="49"/>
+      <c r="AC32" s="164"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="49"/>
+      <c r="AG32" s="49"/>
+      <c r="AH32" s="57"/>
+    </row>
+    <row r="33" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="59"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="49"/>
+      <c r="AC33" s="164"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="49"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="57"/>
+    </row>
+    <row r="34" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="59"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="164"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="49"/>
+      <c r="AG34" s="49"/>
+      <c r="AH34" s="57"/>
+    </row>
+    <row r="35" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B35" s="116"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="59"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="49"/>
+      <c r="AC35" s="164"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="57"/>
+    </row>
+    <row r="36" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B36" s="116"/>
+      <c r="C36" s="146" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="59"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="81"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="49"/>
+      <c r="AC36" s="164"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="49"/>
+      <c r="AF36" s="49"/>
+      <c r="AG36" s="49"/>
+      <c r="AH36" s="57"/>
+    </row>
+    <row r="37" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="59"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="57"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="49"/>
+      <c r="AC37" s="164"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="49"/>
+      <c r="AF37" s="49"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="57"/>
+    </row>
+    <row r="38" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="59"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="49"/>
+      <c r="X38" s="57"/>
+      <c r="Y38" s="50"/>
+      <c r="Z38" s="49"/>
+      <c r="AA38" s="49"/>
+      <c r="AB38" s="49"/>
+      <c r="AC38" s="164"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="49"/>
+      <c r="AF38" s="49"/>
+      <c r="AG38" s="49"/>
+      <c r="AH38" s="57"/>
+    </row>
+    <row r="39" spans="2:34" ht="17.25" customHeight="1">
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="59"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="49"/>
+      <c r="V39" s="49"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="57"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="158"/>
+      <c r="AB39" s="158"/>
+      <c r="AC39" s="167"/>
+      <c r="AD39" s="160"/>
+      <c r="AE39" s="158"/>
+      <c r="AF39" s="158"/>
+      <c r="AG39" s="158"/>
+      <c r="AH39" s="159"/>
+    </row>
+    <row r="40" spans="2:34" ht="24.75" customHeight="1" thickBot="1">
+      <c r="B40" s="139" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="64"/>
+      <c r="T40" s="62"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="64"/>
+      <c r="Y40" s="62"/>
+      <c r="Z40" s="157"/>
+      <c r="AA40" s="161"/>
+      <c r="AB40" s="161"/>
+      <c r="AC40" s="168"/>
+      <c r="AD40" s="173"/>
+      <c r="AE40" s="161"/>
+      <c r="AF40" s="161"/>
+      <c r="AG40" s="161"/>
+      <c r="AH40" s="174"/>
+    </row>
+    <row r="43" spans="2:34" ht="13.5">
+      <c r="B43" s="141" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="142"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="142"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="142"/>
+      <c r="L43" s="142"/>
+      <c r="M43" s="142"/>
+      <c r="N43" s="142"/>
+      <c r="O43" s="142"/>
+      <c r="P43" s="142"/>
+      <c r="Q43" s="142"/>
+      <c r="R43" s="142"/>
+      <c r="S43" s="142"/>
+      <c r="T43" s="142"/>
+      <c r="U43" s="142"/>
+      <c r="V43" s="142"/>
+      <c r="W43" s="142"/>
+      <c r="X43" s="142"/>
+      <c r="Y43" s="142"/>
+      <c r="Z43" s="142"/>
+      <c r="AA43" s="142"/>
+      <c r="AB43" s="142"/>
+      <c r="AC43" s="142"/>
+      <c r="AD43" s="142"/>
+      <c r="AE43" s="142"/>
+      <c r="AF43" s="142"/>
+      <c r="AG43" s="142"/>
+      <c r="AH43" s="142"/>
+    </row>
+    <row r="44" spans="2:34" ht="15.75" customHeight="1">
+      <c r="B44" s="142"/>
+      <c r="C44" s="142"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="142"/>
+      <c r="F44" s="142"/>
+      <c r="G44" s="142"/>
+      <c r="H44" s="142"/>
+      <c r="I44" s="142"/>
+      <c r="J44" s="142"/>
+      <c r="K44" s="142"/>
+      <c r="L44" s="142"/>
+      <c r="M44" s="142"/>
+      <c r="N44" s="142"/>
+      <c r="O44" s="142"/>
+      <c r="P44" s="142"/>
+      <c r="Q44" s="142"/>
+      <c r="R44" s="142"/>
+      <c r="S44" s="142"/>
+      <c r="T44" s="142"/>
+      <c r="U44" s="142"/>
+      <c r="V44" s="142"/>
+      <c r="W44" s="142"/>
+      <c r="X44" s="142"/>
+      <c r="Y44" s="142"/>
+      <c r="Z44" s="142"/>
+      <c r="AA44" s="142"/>
+      <c r="AB44" s="142"/>
+      <c r="AC44" s="142"/>
+      <c r="AD44" s="142"/>
+      <c r="AE44" s="142"/>
+      <c r="AF44" s="142"/>
+      <c r="AG44" s="142"/>
+      <c r="AH44" s="142"/>
+    </row>
+    <row r="45" spans="2:34" ht="15.75" customHeight="1">
+      <c r="B45" s="142"/>
+      <c r="C45" s="142"/>
+      <c r="D45" s="142"/>
+      <c r="E45" s="142"/>
+      <c r="F45" s="142"/>
+      <c r="G45" s="142"/>
+      <c r="H45" s="142"/>
+      <c r="I45" s="142"/>
+      <c r="J45" s="142"/>
+      <c r="K45" s="142"/>
+      <c r="L45" s="142"/>
+      <c r="M45" s="142"/>
+      <c r="N45" s="142"/>
+      <c r="O45" s="142"/>
+      <c r="P45" s="142"/>
+      <c r="Q45" s="142"/>
+      <c r="R45" s="142"/>
+      <c r="S45" s="142"/>
+      <c r="T45" s="142"/>
+      <c r="U45" s="142"/>
+      <c r="V45" s="142"/>
+      <c r="W45" s="142"/>
+      <c r="X45" s="142"/>
+      <c r="Y45" s="142"/>
+      <c r="Z45" s="142"/>
+      <c r="AA45" s="142"/>
+      <c r="AB45" s="142"/>
+      <c r="AC45" s="142"/>
+      <c r="AD45" s="142"/>
+      <c r="AE45" s="142"/>
+      <c r="AF45" s="142"/>
+      <c r="AG45" s="142"/>
+      <c r="AH45" s="142"/>
+    </row>
+    <row r="46" spans="2:34" ht="15.75" customHeight="1">
+      <c r="B46" s="142"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="142"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="142"/>
+      <c r="I46" s="142"/>
+      <c r="J46" s="142"/>
+      <c r="K46" s="142"/>
+      <c r="L46" s="142"/>
+      <c r="M46" s="142"/>
+      <c r="N46" s="142"/>
+      <c r="O46" s="142"/>
+      <c r="P46" s="142"/>
+      <c r="Q46" s="142"/>
+      <c r="R46" s="142"/>
+      <c r="S46" s="142"/>
+      <c r="T46" s="142"/>
+      <c r="U46" s="142"/>
+      <c r="V46" s="142"/>
+      <c r="W46" s="142"/>
+      <c r="X46" s="142"/>
+      <c r="Y46" s="142"/>
+      <c r="Z46" s="142"/>
+      <c r="AA46" s="142"/>
+      <c r="AB46" s="142"/>
+      <c r="AC46" s="142"/>
+      <c r="AD46" s="142"/>
+      <c r="AE46" s="142"/>
+      <c r="AF46" s="142"/>
+      <c r="AG46" s="142"/>
+      <c r="AH46" s="142"/>
+    </row>
+    <row r="47" spans="2:34" ht="15.75" customHeight="1">
+      <c r="B47" s="142"/>
+      <c r="C47" s="142"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="142"/>
+      <c r="J47" s="142"/>
+      <c r="K47" s="142"/>
+      <c r="L47" s="142"/>
+      <c r="M47" s="142"/>
+      <c r="N47" s="142"/>
+      <c r="O47" s="142"/>
+      <c r="P47" s="142"/>
+      <c r="Q47" s="142"/>
+      <c r="R47" s="142"/>
+      <c r="S47" s="142"/>
+      <c r="T47" s="142"/>
+      <c r="U47" s="142"/>
+      <c r="V47" s="142"/>
+      <c r="W47" s="142"/>
+      <c r="X47" s="142"/>
+      <c r="Y47" s="142"/>
+      <c r="Z47" s="142"/>
+      <c r="AA47" s="142"/>
+      <c r="AB47" s="142"/>
+      <c r="AC47" s="142"/>
+      <c r="AD47" s="142"/>
+      <c r="AE47" s="142"/>
+      <c r="AF47" s="142"/>
+      <c r="AG47" s="142"/>
+      <c r="AH47" s="142"/>
+    </row>
+    <row r="48" spans="2:34" ht="15.75" customHeight="1">
+      <c r="B48" s="142"/>
+      <c r="C48" s="142"/>
+      <c r="D48" s="142"/>
+      <c r="E48" s="142"/>
+      <c r="F48" s="142"/>
+      <c r="G48" s="142"/>
+      <c r="H48" s="142"/>
+      <c r="I48" s="142"/>
+      <c r="J48" s="142"/>
+      <c r="K48" s="142"/>
+      <c r="L48" s="142"/>
+      <c r="M48" s="142"/>
+      <c r="N48" s="142"/>
+      <c r="O48" s="142"/>
+      <c r="P48" s="142"/>
+      <c r="Q48" s="142"/>
+      <c r="R48" s="142"/>
+      <c r="S48" s="142"/>
+      <c r="T48" s="142"/>
+      <c r="U48" s="142"/>
+      <c r="V48" s="142"/>
+      <c r="W48" s="142"/>
+      <c r="X48" s="142"/>
+      <c r="Y48" s="142"/>
+      <c r="Z48" s="142"/>
+      <c r="AA48" s="142"/>
+      <c r="AB48" s="142"/>
+      <c r="AC48" s="142"/>
+      <c r="AD48" s="142"/>
+      <c r="AE48" s="142"/>
+      <c r="AF48" s="142"/>
+      <c r="AG48" s="142"/>
+      <c r="AH48" s="142"/>
+    </row>
+    <row r="49" spans="2:34" ht="15.75" customHeight="1">
+      <c r="B49" s="142"/>
+      <c r="C49" s="142"/>
+      <c r="D49" s="142"/>
+      <c r="E49" s="142"/>
+      <c r="F49" s="142"/>
+      <c r="G49" s="142"/>
+      <c r="H49" s="142"/>
+      <c r="I49" s="142"/>
+      <c r="J49" s="142"/>
+      <c r="K49" s="142"/>
+      <c r="L49" s="142"/>
+      <c r="M49" s="142"/>
+      <c r="N49" s="142"/>
+      <c r="O49" s="142"/>
+      <c r="P49" s="142"/>
+      <c r="Q49" s="142"/>
+      <c r="R49" s="142"/>
+      <c r="S49" s="142"/>
+      <c r="T49" s="142"/>
+      <c r="U49" s="142"/>
+      <c r="V49" s="142"/>
+      <c r="W49" s="142"/>
+      <c r="X49" s="142"/>
+      <c r="Y49" s="142"/>
+      <c r="Z49" s="142"/>
+      <c r="AA49" s="142"/>
+      <c r="AB49" s="142"/>
+      <c r="AC49" s="142"/>
+      <c r="AD49" s="142"/>
+      <c r="AE49" s="142"/>
+      <c r="AF49" s="142"/>
+      <c r="AG49" s="142"/>
+      <c r="AH49" s="142"/>
+    </row>
+    <row r="50" spans="2:34" ht="15.75" customHeight="1">
+      <c r="B50" s="142"/>
+      <c r="C50" s="142"/>
+      <c r="D50" s="142"/>
+      <c r="E50" s="142"/>
+      <c r="F50" s="142"/>
+      <c r="G50" s="142"/>
+      <c r="H50" s="142"/>
+      <c r="I50" s="142"/>
+      <c r="J50" s="142"/>
+      <c r="K50" s="142"/>
+      <c r="L50" s="142"/>
+      <c r="M50" s="142"/>
+      <c r="N50" s="142"/>
+      <c r="O50" s="142"/>
+      <c r="P50" s="142"/>
+      <c r="Q50" s="142"/>
+      <c r="R50" s="142"/>
+      <c r="S50" s="142"/>
+      <c r="T50" s="142"/>
+      <c r="U50" s="142"/>
+      <c r="V50" s="142"/>
+      <c r="W50" s="142"/>
+      <c r="X50" s="142"/>
+      <c r="Y50" s="142"/>
+      <c r="Z50" s="142"/>
+      <c r="AA50" s="142"/>
+      <c r="AB50" s="142"/>
+      <c r="AC50" s="142"/>
+      <c r="AD50" s="142"/>
+      <c r="AE50" s="142"/>
+      <c r="AF50" s="142"/>
+      <c r="AG50" s="142"/>
+      <c r="AH50" s="142"/>
+    </row>
+    <row r="51" spans="2:34" ht="15.75" customHeight="1">
+      <c r="B51" s="142"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="142"/>
+      <c r="I51" s="142"/>
+      <c r="J51" s="142"/>
+      <c r="K51" s="142"/>
+      <c r="L51" s="142"/>
+      <c r="M51" s="142"/>
+      <c r="N51" s="142"/>
+      <c r="O51" s="142"/>
+      <c r="P51" s="142"/>
+      <c r="Q51" s="142"/>
+      <c r="R51" s="142"/>
+      <c r="S51" s="142"/>
+      <c r="T51" s="142"/>
+      <c r="U51" s="142"/>
+      <c r="V51" s="142"/>
+      <c r="W51" s="142"/>
+      <c r="X51" s="142"/>
+      <c r="Y51" s="142"/>
+      <c r="Z51" s="142"/>
+      <c r="AA51" s="142"/>
+      <c r="AB51" s="142"/>
+      <c r="AC51" s="142"/>
+      <c r="AD51" s="142"/>
+      <c r="AE51" s="142"/>
+      <c r="AF51" s="142"/>
+      <c r="AG51" s="142"/>
+      <c r="AH51" s="142"/>
+    </row>
+    <row r="99" spans="2:34" ht="26.25">
+      <c r="B99" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+    </row>
+    <row r="100" spans="2:34" ht="13.5">
+      <c r="B100" s="34"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+    </row>
+    <row r="101" spans="2:34" ht="13.5">
+      <c r="B101" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D101" s="34"/>
+    </row>
+    <row r="102" spans="2:34" ht="13.5">
+      <c r="B102" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D102" s="34"/>
+    </row>
+    <row r="103" spans="2:34" ht="13.5">
+      <c r="B103" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D103" s="34"/>
+    </row>
+    <row r="105" spans="2:34" ht="17.25">
+      <c r="B105" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="154"/>
+      <c r="D105" s="120"/>
+      <c r="E105" s="156" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" s="126"/>
+      <c r="G105" s="126"/>
+      <c r="H105" s="126"/>
+      <c r="I105" s="114"/>
+      <c r="J105" s="156" t="s">
+        <v>23</v>
+      </c>
+      <c r="K105" s="126"/>
+      <c r="L105" s="126"/>
+      <c r="M105" s="126"/>
+      <c r="N105" s="114"/>
+      <c r="O105" s="156" t="s">
+        <v>24</v>
+      </c>
+      <c r="P105" s="126"/>
+      <c r="Q105" s="126"/>
+      <c r="R105" s="126"/>
+      <c r="S105" s="114"/>
+      <c r="T105" s="156" t="s">
+        <v>25</v>
+      </c>
+      <c r="U105" s="126"/>
+      <c r="V105" s="126"/>
+      <c r="W105" s="126"/>
+      <c r="X105" s="114"/>
+      <c r="Y105" s="156" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z105" s="126"/>
+      <c r="AA105" s="126"/>
+      <c r="AB105" s="126"/>
+      <c r="AC105" s="114"/>
+      <c r="AD105" s="156" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE105" s="126"/>
+      <c r="AF105" s="126"/>
+      <c r="AG105" s="126"/>
+      <c r="AH105" s="114"/>
+    </row>
+    <row r="106" spans="2:34" ht="17.25">
+      <c r="B106" s="121"/>
+      <c r="C106" s="142"/>
+      <c r="D106" s="122"/>
+      <c r="E106" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F106" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G106" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H106" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I106" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J106" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="K106" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L106" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="M106" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="N106" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="O106" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="P106" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q106" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="R106" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="S106" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="T106" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="U106" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="V106" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="W106" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="X106" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y106" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z106" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA106" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB106" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC106" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD106" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE106" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF106" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG106" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH106" s="40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="2:34" ht="17.25">
+      <c r="B107" s="123"/>
+      <c r="C107" s="155"/>
+      <c r="D107" s="124"/>
+      <c r="E107" s="40">
+        <v>29</v>
+      </c>
+      <c r="F107" s="40">
+        <v>30</v>
+      </c>
+      <c r="G107" s="40">
+        <v>31</v>
+      </c>
+      <c r="H107" s="40">
+        <v>1</v>
+      </c>
+      <c r="I107" s="40">
+        <v>2</v>
+      </c>
+      <c r="J107" s="40">
+        <v>5</v>
+      </c>
+      <c r="K107" s="40">
+        <v>6</v>
+      </c>
+      <c r="L107" s="40">
+        <v>7</v>
+      </c>
+      <c r="M107" s="40">
+        <v>8</v>
+      </c>
+      <c r="N107" s="40">
+        <v>9</v>
+      </c>
+      <c r="O107" s="40">
+        <v>12</v>
+      </c>
+      <c r="P107" s="40">
+        <v>13</v>
+      </c>
+      <c r="Q107" s="40">
+        <v>14</v>
+      </c>
+      <c r="R107" s="40">
+        <v>15</v>
+      </c>
+      <c r="S107" s="40">
+        <v>16</v>
+      </c>
+      <c r="T107" s="40">
+        <v>19</v>
+      </c>
+      <c r="U107" s="40">
+        <v>20</v>
+      </c>
+      <c r="V107" s="40">
+        <v>21</v>
+      </c>
+      <c r="W107" s="40">
+        <v>22</v>
+      </c>
+      <c r="X107" s="40">
+        <v>23</v>
+      </c>
+      <c r="Y107" s="40">
+        <v>26</v>
+      </c>
+      <c r="Z107" s="40">
+        <v>27</v>
+      </c>
+      <c r="AA107" s="40">
+        <v>28</v>
+      </c>
+      <c r="AB107" s="40">
+        <v>29</v>
+      </c>
+      <c r="AC107" s="40">
+        <v>30</v>
+      </c>
+      <c r="AD107" s="40">
+        <v>26</v>
+      </c>
+      <c r="AE107" s="40">
+        <v>27</v>
+      </c>
+      <c r="AF107" s="40">
+        <v>28</v>
+      </c>
+      <c r="AG107" s="40">
+        <v>29</v>
+      </c>
+      <c r="AH107" s="40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="2:34" ht="13.5">
+      <c r="B108" s="152" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" s="113" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" s="114"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="41"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="41"/>
+      <c r="K108" s="41"/>
+      <c r="L108" s="41"/>
+      <c r="M108" s="41"/>
+      <c r="N108" s="41"/>
+      <c r="O108" s="41"/>
+      <c r="P108" s="41"/>
+      <c r="Q108" s="41"/>
+      <c r="R108" s="41"/>
+      <c r="S108" s="41"/>
+      <c r="T108" s="41"/>
+      <c r="U108" s="41"/>
+      <c r="V108" s="41"/>
+      <c r="W108" s="41"/>
+      <c r="X108" s="41"/>
+      <c r="Y108" s="41"/>
+      <c r="Z108" s="41"/>
+      <c r="AA108" s="41"/>
+      <c r="AB108" s="41"/>
+      <c r="AC108" s="41"/>
+      <c r="AD108" s="41"/>
+      <c r="AE108" s="41"/>
+      <c r="AF108" s="41"/>
+      <c r="AG108" s="41"/>
+      <c r="AH108" s="41"/>
+    </row>
+    <row r="109" spans="2:34" ht="13.5">
+      <c r="B109" s="116"/>
+      <c r="C109" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109" s="114"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="41"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="41"/>
+      <c r="K109" s="41"/>
+      <c r="L109" s="41"/>
+      <c r="M109" s="41"/>
+      <c r="N109" s="41"/>
+      <c r="O109" s="41"/>
+      <c r="P109" s="41"/>
+      <c r="Q109" s="41"/>
+      <c r="R109" s="41"/>
+      <c r="S109" s="41"/>
+      <c r="T109" s="41"/>
+      <c r="U109" s="41"/>
+      <c r="V109" s="41"/>
+      <c r="W109" s="41"/>
+      <c r="X109" s="41"/>
+      <c r="Y109" s="41"/>
+      <c r="Z109" s="41"/>
+      <c r="AA109" s="41"/>
+      <c r="AB109" s="41"/>
+      <c r="AC109" s="41"/>
+      <c r="AD109" s="41"/>
+      <c r="AE109" s="41"/>
+      <c r="AF109" s="41"/>
+      <c r="AG109" s="41"/>
+      <c r="AH109" s="41"/>
+    </row>
+    <row r="110" spans="2:34" ht="13.5">
+      <c r="B110" s="116"/>
+      <c r="C110" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="D110" s="114"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="44"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="41"/>
+      <c r="K110" s="41"/>
+      <c r="L110" s="41"/>
+      <c r="M110" s="41"/>
+      <c r="N110" s="41"/>
+      <c r="O110" s="41"/>
+      <c r="P110" s="41"/>
+      <c r="Q110" s="41"/>
+      <c r="R110" s="41"/>
+      <c r="S110" s="41"/>
+      <c r="T110" s="41"/>
+      <c r="U110" s="41"/>
+      <c r="V110" s="41"/>
+      <c r="W110" s="41"/>
+      <c r="X110" s="41"/>
+      <c r="Y110" s="41"/>
+      <c r="Z110" s="41"/>
+      <c r="AA110" s="41"/>
+      <c r="AB110" s="41"/>
+      <c r="AC110" s="41"/>
+      <c r="AD110" s="41"/>
+      <c r="AE110" s="41"/>
+      <c r="AF110" s="41"/>
+      <c r="AG110" s="41"/>
+      <c r="AH110" s="41"/>
+    </row>
+    <row r="111" spans="2:34" ht="13.5">
+      <c r="B111" s="117"/>
+      <c r="C111" s="113" t="s">
+        <v>56</v>
+      </c>
+      <c r="D111" s="114"/>
+      <c r="E111" s="45"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="45"/>
+      <c r="I111" s="45"/>
+      <c r="J111" s="41"/>
+      <c r="K111" s="41"/>
+      <c r="L111" s="41"/>
+      <c r="M111" s="41"/>
+      <c r="N111" s="41"/>
+      <c r="O111" s="41"/>
+      <c r="P111" s="41"/>
+      <c r="Q111" s="41"/>
+      <c r="R111" s="41"/>
+      <c r="S111" s="41"/>
+      <c r="T111" s="41"/>
+      <c r="U111" s="41"/>
+      <c r="V111" s="41"/>
+      <c r="W111" s="41"/>
+      <c r="X111" s="41"/>
+      <c r="Y111" s="41"/>
+      <c r="Z111" s="41"/>
+      <c r="AA111" s="41"/>
+      <c r="AB111" s="41"/>
+      <c r="AC111" s="41"/>
+      <c r="AD111" s="41"/>
+      <c r="AE111" s="41"/>
+      <c r="AF111" s="41"/>
+      <c r="AG111" s="41"/>
+      <c r="AH111" s="41"/>
+    </row>
+    <row r="112" spans="2:34" ht="13.5">
+      <c r="B112" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="137" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="138" t="s">
+      <c r="C112" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="D112" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="125"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="123"/>
-      <c r="V16" s="123"/>
-      <c r="W16" s="123"/>
-      <c r="X16" s="124"/>
-      <c r="Y16" s="125"/>
-      <c r="Z16" s="123"/>
-      <c r="AA16" s="123"/>
-      <c r="AB16" s="123"/>
-      <c r="AC16" s="124"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="82"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="82"/>
-      <c r="AH16" s="82"/>
-    </row>
-    <row r="17" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="108" t="s">
+      <c r="E112" s="42"/>
+      <c r="F112" s="42"/>
+      <c r="G112" s="42"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="41"/>
+      <c r="K112" s="41"/>
+      <c r="L112" s="41"/>
+      <c r="M112" s="41"/>
+      <c r="N112" s="41"/>
+      <c r="O112" s="41"/>
+      <c r="P112" s="41"/>
+      <c r="Q112" s="41"/>
+      <c r="R112" s="41"/>
+      <c r="S112" s="41"/>
+      <c r="T112" s="41"/>
+      <c r="U112" s="41"/>
+      <c r="V112" s="41"/>
+      <c r="W112" s="41"/>
+      <c r="X112" s="41"/>
+      <c r="Y112" s="41"/>
+      <c r="Z112" s="41"/>
+      <c r="AA112" s="41"/>
+      <c r="AB112" s="41"/>
+      <c r="AC112" s="41"/>
+      <c r="AD112" s="41"/>
+      <c r="AE112" s="41"/>
+      <c r="AF112" s="41"/>
+      <c r="AG112" s="41"/>
+      <c r="AH112" s="41"/>
+    </row>
+    <row r="113" spans="2:34" ht="13.5">
+      <c r="B113" s="116"/>
+      <c r="C113" s="116"/>
+      <c r="D113" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="114"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="112"/>
-      <c r="T17" s="114"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="101"/>
-      <c r="X17" s="112"/>
-      <c r="Y17" s="114"/>
-      <c r="Z17" s="101"/>
-      <c r="AA17" s="101"/>
-      <c r="AB17" s="101"/>
-      <c r="AC17" s="112"/>
-      <c r="AD17" s="82"/>
-      <c r="AE17" s="82"/>
-      <c r="AF17" s="82"/>
-      <c r="AG17" s="82"/>
-      <c r="AH17" s="82"/>
-    </row>
-    <row r="18" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="108" t="s">
+      <c r="E113" s="43"/>
+      <c r="F113" s="41"/>
+      <c r="G113" s="41"/>
+      <c r="H113" s="41"/>
+      <c r="I113" s="41"/>
+      <c r="J113" s="41"/>
+      <c r="K113" s="41"/>
+      <c r="L113" s="41"/>
+      <c r="M113" s="41"/>
+      <c r="N113" s="41"/>
+      <c r="O113" s="41"/>
+      <c r="P113" s="41"/>
+      <c r="Q113" s="41"/>
+      <c r="R113" s="41"/>
+      <c r="S113" s="41"/>
+      <c r="T113" s="41"/>
+      <c r="U113" s="41"/>
+      <c r="V113" s="41"/>
+      <c r="W113" s="41"/>
+      <c r="X113" s="41"/>
+      <c r="Y113" s="41"/>
+      <c r="Z113" s="41"/>
+      <c r="AA113" s="41"/>
+      <c r="AB113" s="41"/>
+      <c r="AC113" s="41"/>
+      <c r="AD113" s="41"/>
+      <c r="AE113" s="41"/>
+      <c r="AF113" s="41"/>
+      <c r="AG113" s="41"/>
+      <c r="AH113" s="41"/>
+    </row>
+    <row r="114" spans="2:34" ht="13.5">
+      <c r="B114" s="116"/>
+      <c r="C114" s="116"/>
+      <c r="D114" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="114"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="112"/>
-      <c r="T18" s="114"/>
-      <c r="U18" s="101"/>
-      <c r="V18" s="101"/>
-      <c r="W18" s="101"/>
-      <c r="X18" s="112"/>
-      <c r="Y18" s="114"/>
-      <c r="Z18" s="101"/>
-      <c r="AA18" s="101"/>
-      <c r="AB18" s="101"/>
-      <c r="AC18" s="112"/>
-      <c r="AD18" s="82"/>
-      <c r="AE18" s="82"/>
-      <c r="AF18" s="82"/>
-      <c r="AG18" s="82"/>
-      <c r="AH18" s="82"/>
-    </row>
-    <row r="19" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="108" t="s">
+      <c r="E114" s="41"/>
+      <c r="F114" s="41"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="41"/>
+      <c r="J114" s="41"/>
+      <c r="K114" s="41"/>
+      <c r="L114" s="41"/>
+      <c r="M114" s="41"/>
+      <c r="N114" s="41"/>
+      <c r="O114" s="41"/>
+      <c r="P114" s="41"/>
+      <c r="Q114" s="41"/>
+      <c r="R114" s="41"/>
+      <c r="S114" s="41"/>
+      <c r="T114" s="41"/>
+      <c r="U114" s="41"/>
+      <c r="V114" s="41"/>
+      <c r="W114" s="41"/>
+      <c r="X114" s="41"/>
+      <c r="Y114" s="41"/>
+      <c r="Z114" s="41"/>
+      <c r="AA114" s="41"/>
+      <c r="AB114" s="41"/>
+      <c r="AC114" s="41"/>
+      <c r="AD114" s="41"/>
+      <c r="AE114" s="41"/>
+      <c r="AF114" s="41"/>
+      <c r="AG114" s="41"/>
+      <c r="AH114" s="41"/>
+    </row>
+    <row r="115" spans="2:34" ht="13.5">
+      <c r="B115" s="116"/>
+      <c r="C115" s="116"/>
+      <c r="D115" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="114"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="112"/>
-      <c r="T19" s="114"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="101"/>
-      <c r="X19" s="112"/>
-      <c r="Y19" s="114"/>
-      <c r="Z19" s="101"/>
-      <c r="AA19" s="101"/>
-      <c r="AB19" s="101"/>
-      <c r="AC19" s="112"/>
-      <c r="AD19" s="82"/>
-      <c r="AE19" s="82"/>
-      <c r="AF19" s="82"/>
-      <c r="AG19" s="82"/>
-      <c r="AH19" s="82"/>
-    </row>
-    <row r="20" spans="2:34" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B20" s="83"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="140" t="s">
+      <c r="E115" s="41"/>
+      <c r="F115" s="41"/>
+      <c r="G115" s="41"/>
+      <c r="H115" s="41"/>
+      <c r="I115" s="41"/>
+      <c r="J115" s="41"/>
+      <c r="K115" s="45"/>
+      <c r="L115" s="45"/>
+      <c r="M115" s="45"/>
+      <c r="N115" s="41"/>
+      <c r="O115" s="41"/>
+      <c r="P115" s="41"/>
+      <c r="Q115" s="41"/>
+      <c r="R115" s="41"/>
+      <c r="S115" s="41"/>
+      <c r="T115" s="41"/>
+      <c r="U115" s="41"/>
+      <c r="V115" s="41"/>
+      <c r="W115" s="41"/>
+      <c r="X115" s="41"/>
+      <c r="Y115" s="41"/>
+      <c r="Z115" s="41"/>
+      <c r="AA115" s="41"/>
+      <c r="AB115" s="41"/>
+      <c r="AC115" s="41"/>
+      <c r="AD115" s="41"/>
+      <c r="AE115" s="41"/>
+      <c r="AF115" s="41"/>
+      <c r="AG115" s="41"/>
+      <c r="AH115" s="41"/>
+    </row>
+    <row r="116" spans="2:34" ht="13.5">
+      <c r="B116" s="116"/>
+      <c r="C116" s="117"/>
+      <c r="D116" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="141"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="145"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="142"/>
-      <c r="R20" s="142"/>
-      <c r="S20" s="145"/>
-      <c r="T20" s="141"/>
-      <c r="U20" s="142"/>
-      <c r="V20" s="142"/>
-      <c r="W20" s="142"/>
-      <c r="X20" s="145"/>
-      <c r="Y20" s="141"/>
-      <c r="Z20" s="142"/>
-      <c r="AA20" s="142"/>
-      <c r="AB20" s="142"/>
-      <c r="AC20" s="145"/>
-      <c r="AD20" s="82"/>
-      <c r="AE20" s="82"/>
-      <c r="AF20" s="82"/>
-      <c r="AG20" s="82"/>
-      <c r="AH20" s="82"/>
-    </row>
-    <row r="21" spans="2:34" ht="17.25" customHeight="1" thickTop="1">
-      <c r="B21" s="83"/>
-      <c r="C21" s="137" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="138" t="s">
+      <c r="E116" s="41"/>
+      <c r="F116" s="41"/>
+      <c r="G116" s="41"/>
+      <c r="H116" s="41"/>
+      <c r="I116" s="41"/>
+      <c r="J116" s="41"/>
+      <c r="K116" s="41"/>
+      <c r="L116" s="41"/>
+      <c r="M116" s="47"/>
+      <c r="N116" s="47"/>
+      <c r="O116" s="47"/>
+      <c r="P116" s="41"/>
+      <c r="Q116" s="41"/>
+      <c r="R116" s="41"/>
+      <c r="S116" s="41"/>
+      <c r="T116" s="41"/>
+      <c r="U116" s="41"/>
+      <c r="V116" s="41"/>
+      <c r="W116" s="41"/>
+      <c r="X116" s="41"/>
+      <c r="Y116" s="41"/>
+      <c r="Z116" s="41"/>
+      <c r="AA116" s="41"/>
+      <c r="AB116" s="41"/>
+      <c r="AC116" s="41"/>
+      <c r="AD116" s="41"/>
+      <c r="AE116" s="41"/>
+      <c r="AF116" s="41"/>
+      <c r="AG116" s="41"/>
+      <c r="AH116" s="41"/>
+    </row>
+    <row r="117" spans="2:34" ht="13.5">
+      <c r="B117" s="116"/>
+      <c r="C117" s="115" t="s">
+        <v>58</v>
+      </c>
+      <c r="D117" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="125"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="123"/>
-      <c r="M21" s="123"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="124"/>
-      <c r="T21" s="125"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="123"/>
-      <c r="W21" s="123"/>
-      <c r="X21" s="124"/>
-      <c r="Y21" s="125"/>
-      <c r="Z21" s="123"/>
-      <c r="AA21" s="123"/>
-      <c r="AB21" s="123"/>
-      <c r="AC21" s="124"/>
-      <c r="AD21" s="82"/>
-      <c r="AE21" s="82"/>
-      <c r="AF21" s="82"/>
-      <c r="AG21" s="82"/>
-      <c r="AH21" s="82"/>
-    </row>
-    <row r="22" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="108" t="s">
+      <c r="E117" s="42"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="42"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="41"/>
+      <c r="K117" s="41"/>
+      <c r="L117" s="41"/>
+      <c r="M117" s="41"/>
+      <c r="N117" s="41"/>
+      <c r="O117" s="41"/>
+      <c r="P117" s="41"/>
+      <c r="Q117" s="41"/>
+      <c r="R117" s="41"/>
+      <c r="S117" s="41"/>
+      <c r="T117" s="41"/>
+      <c r="U117" s="41"/>
+      <c r="V117" s="41"/>
+      <c r="W117" s="41"/>
+      <c r="X117" s="41"/>
+      <c r="Y117" s="41"/>
+      <c r="Z117" s="41"/>
+      <c r="AA117" s="41"/>
+      <c r="AB117" s="41"/>
+      <c r="AC117" s="41"/>
+      <c r="AD117" s="41"/>
+      <c r="AE117" s="41"/>
+      <c r="AF117" s="41"/>
+      <c r="AG117" s="41"/>
+      <c r="AH117" s="41"/>
+    </row>
+    <row r="118" spans="2:34" ht="13.5">
+      <c r="B118" s="116"/>
+      <c r="C118" s="116"/>
+      <c r="D118" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="114"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="101"/>
-      <c r="S22" s="112"/>
-      <c r="T22" s="114"/>
-      <c r="U22" s="101"/>
-      <c r="V22" s="101"/>
-      <c r="W22" s="101"/>
-      <c r="X22" s="112"/>
-      <c r="Y22" s="114"/>
-      <c r="Z22" s="101"/>
-      <c r="AA22" s="101"/>
-      <c r="AB22" s="101"/>
-      <c r="AC22" s="112"/>
-      <c r="AD22" s="82"/>
-      <c r="AE22" s="82"/>
-      <c r="AF22" s="82"/>
-      <c r="AG22" s="82"/>
-      <c r="AH22" s="82"/>
-    </row>
-    <row r="23" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="108" t="s">
+      <c r="E118" s="43"/>
+      <c r="F118" s="41"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="41"/>
+      <c r="I118" s="41"/>
+      <c r="J118" s="41"/>
+      <c r="K118" s="41"/>
+      <c r="L118" s="41"/>
+      <c r="M118" s="41"/>
+      <c r="N118" s="41"/>
+      <c r="O118" s="41"/>
+      <c r="P118" s="41"/>
+      <c r="Q118" s="41"/>
+      <c r="R118" s="41"/>
+      <c r="S118" s="41"/>
+      <c r="T118" s="41"/>
+      <c r="U118" s="41"/>
+      <c r="V118" s="41"/>
+      <c r="W118" s="41"/>
+      <c r="X118" s="41"/>
+      <c r="Y118" s="41"/>
+      <c r="Z118" s="41"/>
+      <c r="AA118" s="41"/>
+      <c r="AB118" s="41"/>
+      <c r="AC118" s="41"/>
+      <c r="AD118" s="41"/>
+      <c r="AE118" s="41"/>
+      <c r="AF118" s="41"/>
+      <c r="AG118" s="41"/>
+      <c r="AH118" s="41"/>
+    </row>
+    <row r="119" spans="2:34" ht="13.5">
+      <c r="B119" s="116"/>
+      <c r="C119" s="116"/>
+      <c r="D119" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="114"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="114"/>
-      <c r="U23" s="101"/>
-      <c r="V23" s="101"/>
-      <c r="W23" s="101"/>
-      <c r="X23" s="112"/>
-      <c r="Y23" s="114"/>
-      <c r="Z23" s="101"/>
-      <c r="AA23" s="101"/>
-      <c r="AB23" s="101"/>
-      <c r="AC23" s="112"/>
-      <c r="AD23" s="82"/>
-      <c r="AE23" s="82"/>
-      <c r="AF23" s="82"/>
-      <c r="AG23" s="82"/>
-      <c r="AH23" s="82"/>
-    </row>
-    <row r="24" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="108" t="s">
+      <c r="E119" s="41"/>
+      <c r="F119" s="41"/>
+      <c r="G119" s="41"/>
+      <c r="H119" s="41"/>
+      <c r="I119" s="41"/>
+      <c r="J119" s="44"/>
+      <c r="K119" s="44"/>
+      <c r="L119" s="41"/>
+      <c r="M119" s="41"/>
+      <c r="N119" s="41"/>
+      <c r="O119" s="41"/>
+      <c r="P119" s="41"/>
+      <c r="Q119" s="41"/>
+      <c r="R119" s="41"/>
+      <c r="S119" s="41"/>
+      <c r="T119" s="41"/>
+      <c r="U119" s="41"/>
+      <c r="V119" s="41"/>
+      <c r="W119" s="41"/>
+      <c r="X119" s="41"/>
+      <c r="Y119" s="41"/>
+      <c r="Z119" s="41"/>
+      <c r="AA119" s="41"/>
+      <c r="AB119" s="41"/>
+      <c r="AC119" s="41"/>
+      <c r="AD119" s="41"/>
+      <c r="AE119" s="41"/>
+      <c r="AF119" s="41"/>
+      <c r="AG119" s="41"/>
+      <c r="AH119" s="41"/>
+    </row>
+    <row r="120" spans="2:34" ht="13.5">
+      <c r="B120" s="116"/>
+      <c r="C120" s="116"/>
+      <c r="D120" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="114"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="112"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="112"/>
-      <c r="T24" s="114"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="101"/>
-      <c r="W24" s="101"/>
-      <c r="X24" s="112"/>
-      <c r="Y24" s="114"/>
-      <c r="Z24" s="101"/>
-      <c r="AA24" s="101"/>
-      <c r="AB24" s="101"/>
-      <c r="AC24" s="112"/>
-      <c r="AD24" s="82"/>
-      <c r="AE24" s="82"/>
-      <c r="AF24" s="82"/>
-      <c r="AG24" s="82"/>
-      <c r="AH24" s="82"/>
-    </row>
-    <row r="25" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B25" s="83"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="108" t="s">
+      <c r="E120" s="41"/>
+      <c r="F120" s="41"/>
+      <c r="G120" s="41"/>
+      <c r="H120" s="41"/>
+      <c r="I120" s="41"/>
+      <c r="J120" s="41"/>
+      <c r="K120" s="41"/>
+      <c r="L120" s="41"/>
+      <c r="M120" s="45"/>
+      <c r="N120" s="45"/>
+      <c r="O120" s="45"/>
+      <c r="P120" s="41"/>
+      <c r="Q120" s="41"/>
+      <c r="R120" s="41"/>
+      <c r="S120" s="41"/>
+      <c r="T120" s="41"/>
+      <c r="U120" s="41"/>
+      <c r="V120" s="41"/>
+      <c r="W120" s="41"/>
+      <c r="X120" s="41"/>
+      <c r="Y120" s="41"/>
+      <c r="Z120" s="41"/>
+      <c r="AA120" s="41"/>
+      <c r="AB120" s="41"/>
+      <c r="AC120" s="41"/>
+      <c r="AD120" s="41"/>
+      <c r="AE120" s="41"/>
+      <c r="AF120" s="41"/>
+      <c r="AG120" s="41"/>
+      <c r="AH120" s="41"/>
+    </row>
+    <row r="121" spans="2:34" ht="13.5">
+      <c r="B121" s="116"/>
+      <c r="C121" s="117"/>
+      <c r="D121" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="114"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="112"/>
-      <c r="T25" s="114"/>
-      <c r="U25" s="101"/>
-      <c r="V25" s="101"/>
-      <c r="W25" s="101"/>
-      <c r="X25" s="112"/>
-      <c r="Y25" s="114"/>
-      <c r="Z25" s="101"/>
-      <c r="AA25" s="101"/>
-      <c r="AB25" s="101"/>
-      <c r="AC25" s="112"/>
-      <c r="AD25" s="82"/>
-      <c r="AE25" s="82"/>
-      <c r="AF25" s="82"/>
-      <c r="AG25" s="82"/>
-      <c r="AH25" s="82"/>
-    </row>
-    <row r="26" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B26" s="83"/>
-      <c r="C26" s="159" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="108" t="s">
+      <c r="E121" s="41"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="41"/>
+      <c r="J121" s="41"/>
+      <c r="K121" s="41"/>
+      <c r="L121" s="41"/>
+      <c r="M121" s="41"/>
+      <c r="N121" s="41"/>
+      <c r="O121" s="41"/>
+      <c r="P121" s="47"/>
+      <c r="Q121" s="47"/>
+      <c r="R121" s="47"/>
+      <c r="S121" s="47"/>
+      <c r="T121" s="41"/>
+      <c r="U121" s="41"/>
+      <c r="V121" s="41"/>
+      <c r="W121" s="41"/>
+      <c r="X121" s="41"/>
+      <c r="Y121" s="41"/>
+      <c r="Z121" s="41"/>
+      <c r="AA121" s="41"/>
+      <c r="AB121" s="41"/>
+      <c r="AC121" s="41"/>
+      <c r="AD121" s="41"/>
+      <c r="AE121" s="41"/>
+      <c r="AF121" s="41"/>
+      <c r="AG121" s="41"/>
+      <c r="AH121" s="41"/>
+    </row>
+    <row r="122" spans="2:34" ht="13.5">
+      <c r="B122" s="116"/>
+      <c r="C122" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="D122" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="114"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="147"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="114"/>
-      <c r="U26" s="101"/>
-      <c r="V26" s="101"/>
-      <c r="W26" s="101"/>
-      <c r="X26" s="112"/>
-      <c r="Y26" s="114"/>
-      <c r="Z26" s="101"/>
-      <c r="AA26" s="101"/>
-      <c r="AB26" s="101"/>
-      <c r="AC26" s="112"/>
-      <c r="AD26" s="82"/>
-      <c r="AE26" s="82"/>
-      <c r="AF26" s="82"/>
-      <c r="AG26" s="82"/>
-      <c r="AH26" s="82"/>
-    </row>
-    <row r="27" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="108" t="s">
+      <c r="E122" s="42"/>
+      <c r="F122" s="42"/>
+      <c r="G122" s="42"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="41"/>
+      <c r="K122" s="41"/>
+      <c r="L122" s="41"/>
+      <c r="M122" s="41"/>
+      <c r="N122" s="41"/>
+      <c r="O122" s="41"/>
+      <c r="P122" s="41"/>
+      <c r="Q122" s="41"/>
+      <c r="R122" s="41"/>
+      <c r="S122" s="41"/>
+      <c r="T122" s="41"/>
+      <c r="U122" s="41"/>
+      <c r="V122" s="41"/>
+      <c r="W122" s="41"/>
+      <c r="X122" s="41"/>
+      <c r="Y122" s="41"/>
+      <c r="Z122" s="41"/>
+      <c r="AA122" s="41"/>
+      <c r="AB122" s="41"/>
+      <c r="AC122" s="41"/>
+      <c r="AD122" s="41"/>
+      <c r="AE122" s="41"/>
+      <c r="AF122" s="41"/>
+      <c r="AG122" s="41"/>
+      <c r="AH122" s="41"/>
+    </row>
+    <row r="123" spans="2:34" ht="13.5">
+      <c r="B123" s="116"/>
+      <c r="C123" s="116"/>
+      <c r="D123" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="114"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="104"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="101"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="114"/>
-      <c r="U27" s="101"/>
-      <c r="V27" s="101"/>
-      <c r="W27" s="101"/>
-      <c r="X27" s="112"/>
-      <c r="Y27" s="114"/>
-      <c r="Z27" s="101"/>
-      <c r="AA27" s="101"/>
-      <c r="AB27" s="101"/>
-      <c r="AC27" s="112"/>
-      <c r="AD27" s="82"/>
-      <c r="AE27" s="82"/>
-      <c r="AF27" s="82"/>
-      <c r="AG27" s="82"/>
-      <c r="AH27" s="82"/>
-    </row>
-    <row r="28" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="108" t="s">
+      <c r="E123" s="43"/>
+      <c r="F123" s="41"/>
+      <c r="G123" s="41"/>
+      <c r="H123" s="41"/>
+      <c r="I123" s="41"/>
+      <c r="J123" s="41"/>
+      <c r="K123" s="41"/>
+      <c r="L123" s="41"/>
+      <c r="M123" s="41"/>
+      <c r="N123" s="41"/>
+      <c r="O123" s="41"/>
+      <c r="P123" s="41"/>
+      <c r="Q123" s="41"/>
+      <c r="R123" s="41"/>
+      <c r="S123" s="41"/>
+      <c r="T123" s="41"/>
+      <c r="U123" s="41"/>
+      <c r="V123" s="41"/>
+      <c r="W123" s="41"/>
+      <c r="X123" s="41"/>
+      <c r="Y123" s="41"/>
+      <c r="Z123" s="41"/>
+      <c r="AA123" s="41"/>
+      <c r="AB123" s="41"/>
+      <c r="AC123" s="41"/>
+      <c r="AD123" s="41"/>
+      <c r="AE123" s="41"/>
+      <c r="AF123" s="41"/>
+      <c r="AG123" s="41"/>
+      <c r="AH123" s="41"/>
+    </row>
+    <row r="124" spans="2:34" ht="13.5">
+      <c r="B124" s="116"/>
+      <c r="C124" s="116"/>
+      <c r="D124" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="114"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="105"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="101"/>
-      <c r="R28" s="101"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="114"/>
-      <c r="U28" s="101"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="101"/>
-      <c r="X28" s="112"/>
-      <c r="Y28" s="114"/>
-      <c r="Z28" s="101"/>
-      <c r="AA28" s="101"/>
-      <c r="AB28" s="101"/>
-      <c r="AC28" s="112"/>
-      <c r="AD28" s="82"/>
-      <c r="AE28" s="82"/>
-      <c r="AF28" s="82"/>
-      <c r="AG28" s="82"/>
-      <c r="AH28" s="82"/>
-    </row>
-    <row r="29" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="108" t="s">
+      <c r="E124" s="41"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="41"/>
+      <c r="I124" s="41"/>
+      <c r="J124" s="41"/>
+      <c r="K124" s="41"/>
+      <c r="L124" s="44"/>
+      <c r="M124" s="44"/>
+      <c r="N124" s="41"/>
+      <c r="O124" s="41"/>
+      <c r="P124" s="41"/>
+      <c r="Q124" s="41"/>
+      <c r="R124" s="41"/>
+      <c r="S124" s="41"/>
+      <c r="T124" s="41"/>
+      <c r="U124" s="41"/>
+      <c r="V124" s="41"/>
+      <c r="W124" s="41"/>
+      <c r="X124" s="41"/>
+      <c r="Y124" s="41"/>
+      <c r="Z124" s="41"/>
+      <c r="AA124" s="41"/>
+      <c r="AB124" s="41"/>
+      <c r="AC124" s="41"/>
+      <c r="AD124" s="41"/>
+      <c r="AE124" s="41"/>
+      <c r="AF124" s="41"/>
+      <c r="AG124" s="41"/>
+      <c r="AH124" s="41"/>
+    </row>
+    <row r="125" spans="2:34" ht="13.5">
+      <c r="B125" s="116"/>
+      <c r="C125" s="116"/>
+      <c r="D125" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="114"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="102"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="114"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="112"/>
-      <c r="Y29" s="114"/>
-      <c r="Z29" s="101"/>
-      <c r="AA29" s="101"/>
-      <c r="AB29" s="101"/>
-      <c r="AC29" s="112"/>
-      <c r="AD29" s="82"/>
-      <c r="AE29" s="82"/>
-      <c r="AF29" s="82"/>
-      <c r="AG29" s="82"/>
-      <c r="AH29" s="82"/>
-    </row>
-    <row r="30" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B30" s="83"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="108" t="s">
+      <c r="E125" s="41"/>
+      <c r="F125" s="41"/>
+      <c r="G125" s="41"/>
+      <c r="H125" s="41"/>
+      <c r="I125" s="41"/>
+      <c r="J125" s="41"/>
+      <c r="K125" s="41"/>
+      <c r="L125" s="41"/>
+      <c r="M125" s="41"/>
+      <c r="N125" s="41"/>
+      <c r="O125" s="45"/>
+      <c r="P125" s="45"/>
+      <c r="Q125" s="45"/>
+      <c r="R125" s="45"/>
+      <c r="S125" s="41"/>
+      <c r="T125" s="41"/>
+      <c r="U125" s="41"/>
+      <c r="V125" s="41"/>
+      <c r="W125" s="41"/>
+      <c r="X125" s="41"/>
+      <c r="Y125" s="41"/>
+      <c r="Z125" s="41"/>
+      <c r="AA125" s="41"/>
+      <c r="AB125" s="41"/>
+      <c r="AC125" s="41"/>
+      <c r="AD125" s="41"/>
+      <c r="AE125" s="41"/>
+      <c r="AF125" s="41"/>
+      <c r="AG125" s="41"/>
+      <c r="AH125" s="41"/>
+    </row>
+    <row r="126" spans="2:34" ht="13.5">
+      <c r="B126" s="116"/>
+      <c r="C126" s="117"/>
+      <c r="D126" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="114"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="160"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="114"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="101"/>
-      <c r="X30" s="112"/>
-      <c r="Y30" s="114"/>
-      <c r="Z30" s="101"/>
-      <c r="AA30" s="101"/>
-      <c r="AB30" s="101"/>
-      <c r="AC30" s="112"/>
-      <c r="AD30" s="82"/>
-      <c r="AE30" s="82"/>
-      <c r="AF30" s="82"/>
-      <c r="AG30" s="82"/>
-      <c r="AH30" s="82"/>
-    </row>
-    <row r="31" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B31" s="83"/>
-      <c r="C31" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="108" t="s">
+      <c r="E126" s="41"/>
+      <c r="F126" s="41"/>
+      <c r="G126" s="41"/>
+      <c r="H126" s="41"/>
+      <c r="I126" s="41"/>
+      <c r="J126" s="41"/>
+      <c r="K126" s="41"/>
+      <c r="L126" s="41"/>
+      <c r="M126" s="41"/>
+      <c r="N126" s="41"/>
+      <c r="O126" s="41"/>
+      <c r="P126" s="41"/>
+      <c r="Q126" s="41"/>
+      <c r="R126" s="47"/>
+      <c r="S126" s="47"/>
+      <c r="T126" s="47"/>
+      <c r="U126" s="47"/>
+      <c r="V126" s="41"/>
+      <c r="W126" s="41"/>
+      <c r="X126" s="41"/>
+      <c r="Y126" s="41"/>
+      <c r="Z126" s="41"/>
+      <c r="AA126" s="41"/>
+      <c r="AB126" s="41"/>
+      <c r="AC126" s="41"/>
+      <c r="AD126" s="41"/>
+      <c r="AE126" s="41"/>
+      <c r="AF126" s="41"/>
+      <c r="AG126" s="41"/>
+      <c r="AH126" s="41"/>
+    </row>
+    <row r="127" spans="2:34" ht="13.5">
+      <c r="B127" s="116"/>
+      <c r="C127" s="118" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="114"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="112"/>
-      <c r="T31" s="147"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="101"/>
-      <c r="X31" s="112"/>
-      <c r="Y31" s="114"/>
-      <c r="Z31" s="101"/>
-      <c r="AA31" s="101"/>
-      <c r="AB31" s="101"/>
-      <c r="AC31" s="112"/>
-      <c r="AD31" s="82"/>
-      <c r="AE31" s="82"/>
-      <c r="AF31" s="82"/>
-      <c r="AG31" s="82"/>
-      <c r="AH31" s="82"/>
-    </row>
-    <row r="32" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="108" t="s">
+      <c r="E127" s="41"/>
+      <c r="F127" s="41"/>
+      <c r="G127" s="41"/>
+      <c r="H127" s="41"/>
+      <c r="I127" s="41"/>
+      <c r="J127" s="41"/>
+      <c r="K127" s="41"/>
+      <c r="L127" s="41"/>
+      <c r="M127" s="41"/>
+      <c r="N127" s="41"/>
+      <c r="O127" s="41"/>
+      <c r="P127" s="41"/>
+      <c r="Q127" s="41"/>
+      <c r="R127" s="41"/>
+      <c r="S127" s="41"/>
+      <c r="T127" s="41"/>
+      <c r="U127" s="41"/>
+      <c r="V127" s="41"/>
+      <c r="W127" s="41"/>
+      <c r="X127" s="41"/>
+      <c r="Y127" s="41"/>
+      <c r="Z127" s="41"/>
+      <c r="AA127" s="41"/>
+      <c r="AB127" s="41"/>
+      <c r="AC127" s="41"/>
+      <c r="AD127" s="41"/>
+      <c r="AE127" s="41"/>
+      <c r="AF127" s="41"/>
+      <c r="AG127" s="41"/>
+      <c r="AH127" s="41"/>
+    </row>
+    <row r="128" spans="2:34" ht="13.5">
+      <c r="B128" s="116"/>
+      <c r="C128" s="116"/>
+      <c r="D128" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="114"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="112"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="101"/>
-      <c r="S32" s="112"/>
-      <c r="T32" s="104"/>
-      <c r="U32" s="101"/>
-      <c r="V32" s="101"/>
-      <c r="W32" s="101"/>
-      <c r="X32" s="112"/>
-      <c r="Y32" s="114"/>
-      <c r="Z32" s="101"/>
-      <c r="AA32" s="101"/>
-      <c r="AB32" s="101"/>
-      <c r="AC32" s="112"/>
-      <c r="AD32" s="82"/>
-      <c r="AE32" s="82"/>
-      <c r="AF32" s="82"/>
-      <c r="AG32" s="82"/>
-      <c r="AH32" s="82"/>
-    </row>
-    <row r="33" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="108" t="s">
+      <c r="E128" s="41"/>
+      <c r="F128" s="41"/>
+      <c r="G128" s="41"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="41"/>
+      <c r="J128" s="43"/>
+      <c r="K128" s="43"/>
+      <c r="L128" s="41"/>
+      <c r="M128" s="41"/>
+      <c r="N128" s="41"/>
+      <c r="O128" s="41"/>
+      <c r="P128" s="41"/>
+      <c r="Q128" s="41"/>
+      <c r="R128" s="41"/>
+      <c r="S128" s="41"/>
+      <c r="T128" s="41"/>
+      <c r="U128" s="41"/>
+      <c r="V128" s="41"/>
+      <c r="W128" s="41"/>
+      <c r="X128" s="41"/>
+      <c r="Y128" s="41"/>
+      <c r="Z128" s="41"/>
+      <c r="AA128" s="41"/>
+      <c r="AB128" s="41"/>
+      <c r="AC128" s="41"/>
+      <c r="AD128" s="41"/>
+      <c r="AE128" s="41"/>
+      <c r="AF128" s="41"/>
+      <c r="AG128" s="41"/>
+      <c r="AH128" s="41"/>
+    </row>
+    <row r="129" spans="2:34" ht="13.5">
+      <c r="B129" s="116"/>
+      <c r="C129" s="116"/>
+      <c r="D129" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="114"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="112"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="101"/>
-      <c r="S33" s="112"/>
-      <c r="T33" s="105"/>
-      <c r="U33" s="101"/>
-      <c r="V33" s="101"/>
-      <c r="W33" s="101"/>
-      <c r="X33" s="112"/>
-      <c r="Y33" s="114"/>
-      <c r="Z33" s="101"/>
-      <c r="AA33" s="101"/>
-      <c r="AB33" s="101"/>
-      <c r="AC33" s="112"/>
-      <c r="AD33" s="82"/>
-      <c r="AE33" s="82"/>
-      <c r="AF33" s="82"/>
-      <c r="AG33" s="82"/>
-      <c r="AH33" s="82"/>
-    </row>
-    <row r="34" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="108" t="s">
+      <c r="E129" s="41"/>
+      <c r="F129" s="41"/>
+      <c r="G129" s="41"/>
+      <c r="H129" s="41"/>
+      <c r="I129" s="41"/>
+      <c r="J129" s="41"/>
+      <c r="K129" s="41"/>
+      <c r="L129" s="41"/>
+      <c r="M129" s="44"/>
+      <c r="N129" s="44"/>
+      <c r="O129" s="41"/>
+      <c r="P129" s="41"/>
+      <c r="Q129" s="41"/>
+      <c r="R129" s="41"/>
+      <c r="S129" s="41"/>
+      <c r="T129" s="41"/>
+      <c r="U129" s="41"/>
+      <c r="V129" s="41"/>
+      <c r="W129" s="41"/>
+      <c r="X129" s="41"/>
+      <c r="Y129" s="41"/>
+      <c r="Z129" s="41"/>
+      <c r="AA129" s="41"/>
+      <c r="AB129" s="41"/>
+      <c r="AC129" s="41"/>
+      <c r="AD129" s="41"/>
+      <c r="AE129" s="41"/>
+      <c r="AF129" s="41"/>
+      <c r="AG129" s="41"/>
+      <c r="AH129" s="41"/>
+    </row>
+    <row r="130" spans="2:34" ht="13.5">
+      <c r="B130" s="116"/>
+      <c r="C130" s="116"/>
+      <c r="D130" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="114"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="112"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
-      <c r="S34" s="112"/>
-      <c r="T34" s="102"/>
-      <c r="U34" s="102"/>
-      <c r="V34" s="102"/>
-      <c r="W34" s="101"/>
-      <c r="X34" s="112"/>
-      <c r="Y34" s="114"/>
-      <c r="Z34" s="101"/>
-      <c r="AA34" s="101"/>
-      <c r="AB34" s="101"/>
-      <c r="AC34" s="112"/>
-      <c r="AD34" s="82"/>
-      <c r="AE34" s="82"/>
-      <c r="AF34" s="82"/>
-      <c r="AG34" s="82"/>
-      <c r="AH34" s="82"/>
-    </row>
-    <row r="35" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B35" s="83"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="108" t="s">
+      <c r="E130" s="41"/>
+      <c r="F130" s="41"/>
+      <c r="G130" s="41"/>
+      <c r="H130" s="41"/>
+      <c r="I130" s="41"/>
+      <c r="J130" s="41"/>
+      <c r="K130" s="41"/>
+      <c r="L130" s="41"/>
+      <c r="M130" s="41"/>
+      <c r="N130" s="41"/>
+      <c r="O130" s="41"/>
+      <c r="P130" s="41"/>
+      <c r="Q130" s="41"/>
+      <c r="R130" s="45"/>
+      <c r="S130" s="45"/>
+      <c r="T130" s="45"/>
+      <c r="U130" s="45"/>
+      <c r="V130" s="45"/>
+      <c r="W130" s="41"/>
+      <c r="X130" s="41"/>
+      <c r="Y130" s="41"/>
+      <c r="Z130" s="41"/>
+      <c r="AA130" s="41"/>
+      <c r="AB130" s="41"/>
+      <c r="AC130" s="41"/>
+      <c r="AD130" s="41"/>
+      <c r="AE130" s="41"/>
+      <c r="AF130" s="41"/>
+      <c r="AG130" s="41"/>
+      <c r="AH130" s="41"/>
+    </row>
+    <row r="131" spans="2:34" ht="13.5">
+      <c r="B131" s="116"/>
+      <c r="C131" s="117"/>
+      <c r="D131" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="114"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="112"/>
-      <c r="O35" s="114"/>
-      <c r="P35" s="101"/>
-      <c r="Q35" s="101"/>
-      <c r="R35" s="101"/>
-      <c r="S35" s="112"/>
-      <c r="T35" s="114"/>
-      <c r="U35" s="101"/>
-      <c r="V35" s="103"/>
-      <c r="W35" s="103"/>
-      <c r="X35" s="103"/>
-      <c r="Y35" s="114"/>
-      <c r="Z35" s="101"/>
-      <c r="AA35" s="101"/>
-      <c r="AB35" s="101"/>
-      <c r="AC35" s="112"/>
-      <c r="AD35" s="82"/>
-      <c r="AE35" s="82"/>
-      <c r="AF35" s="82"/>
-      <c r="AG35" s="82"/>
-      <c r="AH35" s="82"/>
-    </row>
-    <row r="36" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B36" s="83"/>
-      <c r="C36" s="89" t="s">
+      <c r="E131" s="41"/>
+      <c r="F131" s="41"/>
+      <c r="G131" s="41"/>
+      <c r="H131" s="41"/>
+      <c r="I131" s="41"/>
+      <c r="J131" s="41"/>
+      <c r="K131" s="41"/>
+      <c r="L131" s="41"/>
+      <c r="M131" s="41"/>
+      <c r="N131" s="41"/>
+      <c r="O131" s="41"/>
+      <c r="P131" s="41"/>
+      <c r="Q131" s="41"/>
+      <c r="R131" s="41"/>
+      <c r="S131" s="41"/>
+      <c r="T131" s="41"/>
+      <c r="U131" s="47"/>
+      <c r="V131" s="47"/>
+      <c r="W131" s="47"/>
+      <c r="X131" s="47"/>
+      <c r="Y131" s="47"/>
+      <c r="Z131" s="41"/>
+      <c r="AA131" s="41"/>
+      <c r="AB131" s="41"/>
+      <c r="AC131" s="41"/>
+      <c r="AD131" s="47"/>
+      <c r="AE131" s="41"/>
+      <c r="AF131" s="41"/>
+      <c r="AG131" s="41"/>
+      <c r="AH131" s="41"/>
+    </row>
+    <row r="132" spans="2:34" ht="13.5">
+      <c r="B132" s="116"/>
+      <c r="C132" s="118" t="s">
+        <v>61</v>
+      </c>
+      <c r="D132" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E132" s="42"/>
+      <c r="F132" s="42"/>
+      <c r="G132" s="42"/>
+      <c r="H132" s="42"/>
+      <c r="I132" s="42"/>
+      <c r="J132" s="41"/>
+      <c r="K132" s="41"/>
+      <c r="L132" s="41"/>
+      <c r="M132" s="41"/>
+      <c r="N132" s="41"/>
+      <c r="O132" s="41"/>
+      <c r="P132" s="41"/>
+      <c r="Q132" s="41"/>
+      <c r="R132" s="41"/>
+      <c r="S132" s="41"/>
+      <c r="T132" s="41"/>
+      <c r="U132" s="41"/>
+      <c r="V132" s="41"/>
+      <c r="W132" s="41"/>
+      <c r="X132" s="41"/>
+      <c r="Y132" s="41"/>
+      <c r="Z132" s="41"/>
+      <c r="AA132" s="41"/>
+      <c r="AB132" s="41"/>
+      <c r="AC132" s="41"/>
+      <c r="AD132" s="41"/>
+      <c r="AE132" s="41"/>
+      <c r="AF132" s="41"/>
+      <c r="AG132" s="41"/>
+      <c r="AH132" s="41"/>
+    </row>
+    <row r="133" spans="2:34" ht="13.5">
+      <c r="B133" s="116"/>
+      <c r="C133" s="116"/>
+      <c r="D133" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E133" s="41"/>
+      <c r="F133" s="43"/>
+      <c r="G133" s="43"/>
+      <c r="H133" s="43"/>
+      <c r="I133" s="43"/>
+      <c r="J133" s="41"/>
+      <c r="K133" s="41"/>
+      <c r="L133" s="41"/>
+      <c r="M133" s="41"/>
+      <c r="N133" s="41"/>
+      <c r="O133" s="41"/>
+      <c r="P133" s="41"/>
+      <c r="Q133" s="41"/>
+      <c r="R133" s="41"/>
+      <c r="S133" s="41"/>
+      <c r="T133" s="41"/>
+      <c r="U133" s="41"/>
+      <c r="V133" s="41"/>
+      <c r="W133" s="41"/>
+      <c r="X133" s="41"/>
+      <c r="Y133" s="41"/>
+      <c r="Z133" s="41"/>
+      <c r="AA133" s="41"/>
+      <c r="AB133" s="41"/>
+      <c r="AC133" s="41"/>
+      <c r="AD133" s="41"/>
+      <c r="AE133" s="41"/>
+      <c r="AF133" s="41"/>
+      <c r="AG133" s="41"/>
+      <c r="AH133" s="41"/>
+    </row>
+    <row r="134" spans="2:34" ht="13.5">
+      <c r="B134" s="116"/>
+      <c r="C134" s="116"/>
+      <c r="D134" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E134" s="41"/>
+      <c r="F134" s="41"/>
+      <c r="G134" s="41"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
+      <c r="K134" s="44"/>
+      <c r="L134" s="44"/>
+      <c r="M134" s="44"/>
+      <c r="N134" s="44"/>
+      <c r="O134" s="44"/>
+      <c r="P134" s="44"/>
+      <c r="Q134" s="41"/>
+      <c r="R134" s="41"/>
+      <c r="S134" s="41"/>
+      <c r="T134" s="41"/>
+      <c r="U134" s="41"/>
+      <c r="V134" s="41"/>
+      <c r="W134" s="41"/>
+      <c r="X134" s="41"/>
+      <c r="Y134" s="41"/>
+      <c r="Z134" s="41"/>
+      <c r="AA134" s="41"/>
+      <c r="AB134" s="41"/>
+      <c r="AC134" s="41"/>
+      <c r="AD134" s="41"/>
+      <c r="AE134" s="41"/>
+      <c r="AF134" s="41"/>
+      <c r="AG134" s="41"/>
+      <c r="AH134" s="41"/>
+    </row>
+    <row r="135" spans="2:34" ht="13.5">
+      <c r="B135" s="116"/>
+      <c r="C135" s="116"/>
+      <c r="D135" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E135" s="41"/>
+      <c r="F135" s="41"/>
+      <c r="G135" s="41"/>
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+      <c r="J135" s="41"/>
+      <c r="K135" s="41"/>
+      <c r="L135" s="45"/>
+      <c r="M135" s="45"/>
+      <c r="N135" s="45"/>
+      <c r="O135" s="45"/>
+      <c r="P135" s="45"/>
+      <c r="Q135" s="45"/>
+      <c r="R135" s="45"/>
+      <c r="S135" s="45"/>
+      <c r="T135" s="41"/>
+      <c r="U135" s="41"/>
+      <c r="V135" s="41"/>
+      <c r="W135" s="41"/>
+      <c r="X135" s="41"/>
+      <c r="Y135" s="41"/>
+      <c r="Z135" s="41"/>
+      <c r="AA135" s="41"/>
+      <c r="AB135" s="41"/>
+      <c r="AC135" s="41"/>
+      <c r="AD135" s="41"/>
+      <c r="AE135" s="41"/>
+      <c r="AF135" s="41"/>
+      <c r="AG135" s="41"/>
+      <c r="AH135" s="41"/>
+    </row>
+    <row r="136" spans="2:34" ht="13.5">
+      <c r="B136" s="116"/>
+      <c r="C136" s="117"/>
+      <c r="D136" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E136" s="41"/>
+      <c r="F136" s="41"/>
+      <c r="G136" s="41"/>
+      <c r="H136" s="41"/>
+      <c r="I136" s="41"/>
+      <c r="J136" s="41"/>
+      <c r="K136" s="41"/>
+      <c r="L136" s="41"/>
+      <c r="M136" s="41"/>
+      <c r="N136" s="41"/>
+      <c r="O136" s="47"/>
+      <c r="P136" s="47"/>
+      <c r="Q136" s="47"/>
+      <c r="R136" s="47"/>
+      <c r="S136" s="47"/>
+      <c r="T136" s="47"/>
+      <c r="U136" s="47"/>
+      <c r="V136" s="47"/>
+      <c r="W136" s="47"/>
+      <c r="X136" s="47"/>
+      <c r="Y136" s="41"/>
+      <c r="Z136" s="41"/>
+      <c r="AA136" s="41"/>
+      <c r="AB136" s="41"/>
+      <c r="AC136" s="41"/>
+      <c r="AD136" s="41"/>
+      <c r="AE136" s="41"/>
+      <c r="AF136" s="41"/>
+      <c r="AG136" s="41"/>
+      <c r="AH136" s="41"/>
+    </row>
+    <row r="137" spans="2:34" ht="13.5">
+      <c r="B137" s="116"/>
+      <c r="C137" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="108" t="s">
+      <c r="D137" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="114"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="112"/>
-      <c r="O36" s="120"/>
-      <c r="P36" s="121"/>
-      <c r="Q36" s="121"/>
-      <c r="R36" s="121"/>
-      <c r="S36" s="122"/>
-      <c r="T36" s="114"/>
-      <c r="U36" s="101"/>
-      <c r="V36" s="101"/>
-      <c r="W36" s="101"/>
-      <c r="X36" s="112"/>
-      <c r="Y36" s="147"/>
-      <c r="Z36" s="101"/>
-      <c r="AA36" s="101"/>
-      <c r="AB36" s="101"/>
-      <c r="AC36" s="112"/>
-      <c r="AD36" s="82"/>
-      <c r="AE36" s="82"/>
-      <c r="AF36" s="82"/>
-      <c r="AG36" s="82"/>
-      <c r="AH36" s="82"/>
-    </row>
-    <row r="37" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="108" t="s">
+      <c r="E137" s="41"/>
+      <c r="F137" s="41"/>
+      <c r="G137" s="41"/>
+      <c r="H137" s="41"/>
+      <c r="I137" s="41"/>
+      <c r="J137" s="41"/>
+      <c r="K137" s="41"/>
+      <c r="L137" s="41"/>
+      <c r="M137" s="41"/>
+      <c r="N137" s="41"/>
+      <c r="O137" s="42"/>
+      <c r="P137" s="42"/>
+      <c r="Q137" s="42"/>
+      <c r="R137" s="42"/>
+      <c r="S137" s="42"/>
+      <c r="T137" s="41"/>
+      <c r="U137" s="41"/>
+      <c r="V137" s="41"/>
+      <c r="W137" s="41"/>
+      <c r="X137" s="41"/>
+      <c r="Y137" s="41"/>
+      <c r="Z137" s="41"/>
+      <c r="AA137" s="41"/>
+      <c r="AB137" s="41"/>
+      <c r="AC137" s="41"/>
+      <c r="AD137" s="41"/>
+      <c r="AE137" s="41"/>
+      <c r="AF137" s="41"/>
+      <c r="AG137" s="41"/>
+      <c r="AH137" s="41"/>
+    </row>
+    <row r="138" spans="2:34" ht="13.5">
+      <c r="B138" s="116"/>
+      <c r="C138" s="116"/>
+      <c r="D138" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="114"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="114"/>
-      <c r="P37" s="101"/>
-      <c r="Q37" s="101"/>
-      <c r="R37" s="101"/>
-      <c r="S37" s="112"/>
-      <c r="T37" s="114"/>
-      <c r="U37" s="101"/>
-      <c r="V37" s="101"/>
-      <c r="W37" s="101"/>
-      <c r="X37" s="112"/>
-      <c r="Y37" s="104"/>
-      <c r="Z37" s="101"/>
-      <c r="AA37" s="101"/>
-      <c r="AB37" s="101"/>
-      <c r="AC37" s="112"/>
-      <c r="AD37" s="82"/>
-      <c r="AE37" s="82"/>
-      <c r="AF37" s="82"/>
-      <c r="AG37" s="82"/>
-      <c r="AH37" s="82"/>
-    </row>
-    <row r="38" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="108" t="s">
+      <c r="E138" s="43"/>
+      <c r="F138" s="43"/>
+      <c r="G138" s="43"/>
+      <c r="H138" s="43"/>
+      <c r="I138" s="43"/>
+      <c r="J138" s="41"/>
+      <c r="K138" s="41"/>
+      <c r="L138" s="41"/>
+      <c r="M138" s="41"/>
+      <c r="N138" s="41"/>
+      <c r="O138" s="41"/>
+      <c r="P138" s="41"/>
+      <c r="Q138" s="41"/>
+      <c r="R138" s="41"/>
+      <c r="S138" s="41"/>
+      <c r="T138" s="41"/>
+      <c r="U138" s="41"/>
+      <c r="V138" s="41"/>
+      <c r="W138" s="41"/>
+      <c r="X138" s="41"/>
+      <c r="Y138" s="41"/>
+      <c r="Z138" s="41"/>
+      <c r="AA138" s="41"/>
+      <c r="AB138" s="41"/>
+      <c r="AC138" s="41"/>
+      <c r="AD138" s="41"/>
+      <c r="AE138" s="41"/>
+      <c r="AF138" s="41"/>
+      <c r="AG138" s="41"/>
+      <c r="AH138" s="41"/>
+    </row>
+    <row r="139" spans="2:34" ht="13.5">
+      <c r="B139" s="116"/>
+      <c r="C139" s="116"/>
+      <c r="D139" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="114"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="112"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="112"/>
-      <c r="O38" s="114"/>
-      <c r="P38" s="101"/>
-      <c r="Q38" s="101"/>
-      <c r="R38" s="101"/>
-      <c r="S38" s="112"/>
-      <c r="T38" s="114"/>
-      <c r="U38" s="101"/>
-      <c r="V38" s="101"/>
-      <c r="W38" s="101"/>
-      <c r="X38" s="112"/>
-      <c r="Y38" s="102"/>
-      <c r="Z38" s="101"/>
-      <c r="AA38" s="101"/>
-      <c r="AB38" s="101"/>
-      <c r="AC38" s="112"/>
-      <c r="AD38" s="82"/>
-      <c r="AE38" s="82"/>
-      <c r="AF38" s="82"/>
-      <c r="AG38" s="82"/>
-      <c r="AH38" s="82"/>
-    </row>
-    <row r="39" spans="2:34" ht="17.25" customHeight="1">
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="108" t="s">
+      <c r="E139" s="41"/>
+      <c r="F139" s="41"/>
+      <c r="G139" s="41"/>
+      <c r="H139" s="41"/>
+      <c r="I139" s="41"/>
+      <c r="J139" s="41"/>
+      <c r="K139" s="41"/>
+      <c r="L139" s="41"/>
+      <c r="M139" s="41"/>
+      <c r="N139" s="41"/>
+      <c r="O139" s="41"/>
+      <c r="P139" s="41"/>
+      <c r="Q139" s="41"/>
+      <c r="R139" s="41"/>
+      <c r="S139" s="41"/>
+      <c r="T139" s="41"/>
+      <c r="U139" s="41"/>
+      <c r="V139" s="41"/>
+      <c r="W139" s="45"/>
+      <c r="X139" s="45"/>
+      <c r="Y139" s="45"/>
+      <c r="Z139" s="45"/>
+      <c r="AA139" s="45"/>
+      <c r="AB139" s="45"/>
+      <c r="AC139" s="45"/>
+      <c r="AD139" s="45"/>
+      <c r="AE139" s="45"/>
+      <c r="AF139" s="45"/>
+      <c r="AG139" s="45"/>
+      <c r="AH139" s="45"/>
+    </row>
+    <row r="140" spans="2:34" ht="13.5">
+      <c r="B140" s="117"/>
+      <c r="C140" s="117"/>
+      <c r="D140" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="114"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="114"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="101"/>
-      <c r="M39" s="101"/>
-      <c r="N39" s="112"/>
-      <c r="O39" s="114"/>
-      <c r="P39" s="101"/>
-      <c r="Q39" s="101"/>
-      <c r="R39" s="101"/>
-      <c r="S39" s="112"/>
-      <c r="T39" s="114"/>
-      <c r="U39" s="101"/>
-      <c r="V39" s="101"/>
-      <c r="W39" s="101"/>
-      <c r="X39" s="112"/>
-      <c r="Y39" s="103"/>
-      <c r="Z39" s="103"/>
-      <c r="AA39" s="101"/>
-      <c r="AB39" s="101"/>
-      <c r="AC39" s="112"/>
-      <c r="AD39" s="82"/>
-      <c r="AE39" s="82"/>
-      <c r="AF39" s="82"/>
-      <c r="AG39" s="82"/>
-      <c r="AH39" s="82"/>
-    </row>
-    <row r="40" spans="2:34" ht="24.75" customHeight="1" thickBot="1">
-      <c r="B40" s="161" t="s">
+      <c r="E140" s="41"/>
+      <c r="F140" s="41"/>
+      <c r="G140" s="41"/>
+      <c r="H140" s="41"/>
+      <c r="I140" s="41"/>
+      <c r="J140" s="41"/>
+      <c r="K140" s="41"/>
+      <c r="L140" s="41"/>
+      <c r="M140" s="41"/>
+      <c r="N140" s="41"/>
+      <c r="O140" s="41"/>
+      <c r="P140" s="41"/>
+      <c r="Q140" s="41"/>
+      <c r="R140" s="41"/>
+      <c r="S140" s="41"/>
+      <c r="T140" s="41"/>
+      <c r="U140" s="41"/>
+      <c r="V140" s="41"/>
+      <c r="W140" s="41"/>
+      <c r="X140" s="41"/>
+      <c r="Y140" s="41"/>
+      <c r="Z140" s="41"/>
+      <c r="AA140" s="47"/>
+      <c r="AB140" s="47"/>
+      <c r="AC140" s="47"/>
+      <c r="AD140" s="41"/>
+      <c r="AE140" s="41"/>
+      <c r="AF140" s="47"/>
+      <c r="AG140" s="47"/>
+      <c r="AH140" s="47"/>
+    </row>
+    <row r="141" spans="2:34" ht="13.5">
+      <c r="B141" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="C141" s="120"/>
+      <c r="D141" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E141" s="41"/>
+      <c r="F141" s="41"/>
+      <c r="G141" s="41"/>
+      <c r="H141" s="42"/>
+      <c r="I141" s="42"/>
+      <c r="J141" s="42"/>
+      <c r="K141" s="42"/>
+      <c r="L141" s="42"/>
+      <c r="M141" s="42"/>
+      <c r="N141" s="42"/>
+      <c r="O141" s="41"/>
+      <c r="P141" s="41"/>
+      <c r="Q141" s="41"/>
+      <c r="R141" s="41"/>
+      <c r="S141" s="41"/>
+      <c r="T141" s="41"/>
+      <c r="U141" s="41"/>
+      <c r="V141" s="41"/>
+      <c r="W141" s="41"/>
+      <c r="X141" s="41"/>
+      <c r="Y141" s="41"/>
+      <c r="Z141" s="41"/>
+      <c r="AA141" s="41"/>
+      <c r="AB141" s="41"/>
+      <c r="AC141" s="41"/>
+      <c r="AD141" s="41"/>
+      <c r="AE141" s="41"/>
+      <c r="AF141" s="41"/>
+      <c r="AG141" s="41"/>
+      <c r="AH141" s="41"/>
+    </row>
+    <row r="142" spans="2:34" ht="13.5">
+      <c r="B142" s="121"/>
+      <c r="C142" s="122"/>
+      <c r="D142" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E142" s="43"/>
+      <c r="F142" s="43"/>
+      <c r="G142" s="43"/>
+      <c r="H142" s="43"/>
+      <c r="I142" s="43"/>
+      <c r="J142" s="41"/>
+      <c r="K142" s="41"/>
+      <c r="L142" s="41"/>
+      <c r="M142" s="41"/>
+      <c r="N142" s="41"/>
+      <c r="O142" s="41"/>
+      <c r="P142" s="41"/>
+      <c r="Q142" s="41"/>
+      <c r="R142" s="41"/>
+      <c r="S142" s="41"/>
+      <c r="T142" s="41"/>
+      <c r="U142" s="41"/>
+      <c r="V142" s="41"/>
+      <c r="W142" s="41"/>
+      <c r="X142" s="41"/>
+      <c r="Y142" s="41"/>
+      <c r="Z142" s="41"/>
+      <c r="AA142" s="41"/>
+      <c r="AB142" s="41"/>
+      <c r="AC142" s="41"/>
+      <c r="AD142" s="41"/>
+      <c r="AE142" s="41"/>
+      <c r="AF142" s="41"/>
+      <c r="AG142" s="41"/>
+      <c r="AH142" s="41"/>
+    </row>
+    <row r="143" spans="2:34" ht="13.5">
+      <c r="B143" s="121"/>
+      <c r="C143" s="122"/>
+      <c r="D143" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E143" s="41"/>
+      <c r="F143" s="41"/>
+      <c r="G143" s="41"/>
+      <c r="H143" s="41"/>
+      <c r="I143" s="41"/>
+      <c r="J143" s="44"/>
+      <c r="K143" s="44"/>
+      <c r="L143" s="44"/>
+      <c r="M143" s="44"/>
+      <c r="N143" s="41"/>
+      <c r="O143" s="41"/>
+      <c r="P143" s="41"/>
+      <c r="Q143" s="41"/>
+      <c r="R143" s="41"/>
+      <c r="S143" s="41"/>
+      <c r="T143" s="41"/>
+      <c r="U143" s="41"/>
+      <c r="V143" s="41"/>
+      <c r="W143" s="41"/>
+      <c r="X143" s="41"/>
+      <c r="Y143" s="41"/>
+      <c r="Z143" s="41"/>
+      <c r="AA143" s="41"/>
+      <c r="AB143" s="41"/>
+      <c r="AC143" s="41"/>
+      <c r="AD143" s="41"/>
+      <c r="AE143" s="41"/>
+      <c r="AF143" s="41"/>
+      <c r="AG143" s="41"/>
+      <c r="AH143" s="41"/>
+    </row>
+    <row r="144" spans="2:34" ht="13.5">
+      <c r="B144" s="123"/>
+      <c r="C144" s="124"/>
+      <c r="D144" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E144" s="41"/>
+      <c r="F144" s="41"/>
+      <c r="G144" s="41"/>
+      <c r="H144" s="41"/>
+      <c r="I144" s="41"/>
+      <c r="J144" s="41"/>
+      <c r="K144" s="41"/>
+      <c r="L144" s="41"/>
+      <c r="M144" s="41"/>
+      <c r="N144" s="41"/>
+      <c r="O144" s="41"/>
+      <c r="P144" s="41"/>
+      <c r="Q144" s="41"/>
+      <c r="R144" s="41"/>
+      <c r="S144" s="41"/>
+      <c r="T144" s="41"/>
+      <c r="U144" s="47"/>
+      <c r="V144" s="47"/>
+      <c r="W144" s="47"/>
+      <c r="X144" s="47"/>
+      <c r="Y144" s="47"/>
+      <c r="Z144" s="47"/>
+      <c r="AA144" s="47"/>
+      <c r="AB144" s="47"/>
+      <c r="AC144" s="47"/>
+      <c r="AD144" s="47"/>
+      <c r="AE144" s="47"/>
+      <c r="AF144" s="47"/>
+      <c r="AG144" s="47"/>
+      <c r="AH144" s="47"/>
+    </row>
+    <row r="145" spans="2:34" ht="13.5">
+      <c r="B145" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="162"/>
-      <c r="D40" s="162"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="118"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="117"/>
-      <c r="K40" s="118"/>
-      <c r="L40" s="118"/>
-      <c r="M40" s="118"/>
-      <c r="N40" s="119"/>
-      <c r="O40" s="117"/>
-      <c r="P40" s="118"/>
-      <c r="Q40" s="118"/>
-      <c r="R40" s="118"/>
-      <c r="S40" s="119"/>
-      <c r="T40" s="117"/>
-      <c r="U40" s="118"/>
-      <c r="V40" s="118"/>
-      <c r="W40" s="118"/>
-      <c r="X40" s="119"/>
-      <c r="Y40" s="117"/>
-      <c r="Z40" s="118"/>
-      <c r="AA40" s="163"/>
-      <c r="AB40" s="163"/>
-      <c r="AC40" s="164"/>
-      <c r="AD40" s="82"/>
-      <c r="AE40" s="82"/>
-      <c r="AF40" s="82"/>
-      <c r="AG40" s="82"/>
-      <c r="AH40" s="82"/>
-    </row>
-    <row r="43" spans="2:34" ht="13.5">
-      <c r="B43" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="70"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="70"/>
-      <c r="Q43" s="70"/>
-      <c r="R43" s="70"/>
-      <c r="S43" s="70"/>
-      <c r="T43" s="70"/>
-      <c r="U43" s="70"/>
-      <c r="V43" s="70"/>
-      <c r="W43" s="70"/>
-      <c r="X43" s="70"/>
-      <c r="Y43" s="70"/>
-      <c r="Z43" s="70"/>
-      <c r="AA43" s="70"/>
-      <c r="AB43" s="70"/>
-      <c r="AC43" s="70"/>
-      <c r="AD43" s="70"/>
-      <c r="AE43" s="70"/>
-      <c r="AF43" s="70"/>
-      <c r="AG43" s="70"/>
-      <c r="AH43" s="70"/>
-    </row>
-    <row r="44" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="70"/>
-      <c r="N44" s="70"/>
-      <c r="O44" s="70"/>
-      <c r="P44" s="70"/>
-      <c r="Q44" s="70"/>
-      <c r="R44" s="70"/>
-      <c r="S44" s="70"/>
-      <c r="T44" s="70"/>
-      <c r="U44" s="70"/>
-      <c r="V44" s="70"/>
-      <c r="W44" s="70"/>
-      <c r="X44" s="70"/>
-      <c r="Y44" s="70"/>
-      <c r="Z44" s="70"/>
-      <c r="AA44" s="70"/>
-      <c r="AB44" s="70"/>
-      <c r="AC44" s="70"/>
-      <c r="AD44" s="70"/>
-      <c r="AE44" s="70"/>
-      <c r="AF44" s="70"/>
-      <c r="AG44" s="70"/>
-      <c r="AH44" s="70"/>
-    </row>
-    <row r="45" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="70"/>
-      <c r="K45" s="70"/>
-      <c r="L45" s="70"/>
-      <c r="M45" s="70"/>
-      <c r="N45" s="70"/>
-      <c r="O45" s="70"/>
-      <c r="P45" s="70"/>
-      <c r="Q45" s="70"/>
-      <c r="R45" s="70"/>
-      <c r="S45" s="70"/>
-      <c r="T45" s="70"/>
-      <c r="U45" s="70"/>
-      <c r="V45" s="70"/>
-      <c r="W45" s="70"/>
-      <c r="X45" s="70"/>
-      <c r="Y45" s="70"/>
-      <c r="Z45" s="70"/>
-      <c r="AA45" s="70"/>
-      <c r="AB45" s="70"/>
-      <c r="AC45" s="70"/>
-      <c r="AD45" s="70"/>
-      <c r="AE45" s="70"/>
-      <c r="AF45" s="70"/>
-      <c r="AG45" s="70"/>
-      <c r="AH45" s="70"/>
-    </row>
-    <row r="46" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="70"/>
-      <c r="N46" s="70"/>
-      <c r="O46" s="70"/>
-      <c r="P46" s="70"/>
-      <c r="Q46" s="70"/>
-      <c r="R46" s="70"/>
-      <c r="S46" s="70"/>
-      <c r="T46" s="70"/>
-      <c r="U46" s="70"/>
-      <c r="V46" s="70"/>
-      <c r="W46" s="70"/>
-      <c r="X46" s="70"/>
-      <c r="Y46" s="70"/>
-      <c r="Z46" s="70"/>
-      <c r="AA46" s="70"/>
-      <c r="AB46" s="70"/>
-      <c r="AC46" s="70"/>
-      <c r="AD46" s="70"/>
-      <c r="AE46" s="70"/>
-      <c r="AF46" s="70"/>
-      <c r="AG46" s="70"/>
-      <c r="AH46" s="70"/>
-    </row>
-    <row r="47" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="70"/>
-      <c r="O47" s="70"/>
-      <c r="P47" s="70"/>
-      <c r="Q47" s="70"/>
-      <c r="R47" s="70"/>
-      <c r="S47" s="70"/>
-      <c r="T47" s="70"/>
-      <c r="U47" s="70"/>
-      <c r="V47" s="70"/>
-      <c r="W47" s="70"/>
-      <c r="X47" s="70"/>
-      <c r="Y47" s="70"/>
-      <c r="Z47" s="70"/>
-      <c r="AA47" s="70"/>
-      <c r="AB47" s="70"/>
-      <c r="AC47" s="70"/>
-      <c r="AD47" s="70"/>
-      <c r="AE47" s="70"/>
-      <c r="AF47" s="70"/>
-      <c r="AG47" s="70"/>
-      <c r="AH47" s="70"/>
-    </row>
-    <row r="48" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="70"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="70"/>
-      <c r="O48" s="70"/>
-      <c r="P48" s="70"/>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="70"/>
-      <c r="S48" s="70"/>
-      <c r="T48" s="70"/>
-      <c r="U48" s="70"/>
-      <c r="V48" s="70"/>
-      <c r="W48" s="70"/>
-      <c r="X48" s="70"/>
-      <c r="Y48" s="70"/>
-      <c r="Z48" s="70"/>
-      <c r="AA48" s="70"/>
-      <c r="AB48" s="70"/>
-      <c r="AC48" s="70"/>
-      <c r="AD48" s="70"/>
-      <c r="AE48" s="70"/>
-      <c r="AF48" s="70"/>
-      <c r="AG48" s="70"/>
-      <c r="AH48" s="70"/>
-    </row>
-    <row r="49" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="70"/>
-      <c r="H49" s="70"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="70"/>
-      <c r="R49" s="70"/>
-      <c r="S49" s="70"/>
-      <c r="T49" s="70"/>
-      <c r="U49" s="70"/>
-      <c r="V49" s="70"/>
-      <c r="W49" s="70"/>
-      <c r="X49" s="70"/>
-      <c r="Y49" s="70"/>
-      <c r="Z49" s="70"/>
-      <c r="AA49" s="70"/>
-      <c r="AB49" s="70"/>
-      <c r="AC49" s="70"/>
-      <c r="AD49" s="70"/>
-      <c r="AE49" s="70"/>
-      <c r="AF49" s="70"/>
-      <c r="AG49" s="70"/>
-      <c r="AH49" s="70"/>
-    </row>
-    <row r="50" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="70"/>
-      <c r="N50" s="70"/>
-      <c r="O50" s="70"/>
-      <c r="P50" s="70"/>
-      <c r="Q50" s="70"/>
-      <c r="R50" s="70"/>
-      <c r="S50" s="70"/>
-      <c r="T50" s="70"/>
-      <c r="U50" s="70"/>
-      <c r="V50" s="70"/>
-      <c r="W50" s="70"/>
-      <c r="X50" s="70"/>
-      <c r="Y50" s="70"/>
-      <c r="Z50" s="70"/>
-      <c r="AA50" s="70"/>
-      <c r="AB50" s="70"/>
-      <c r="AC50" s="70"/>
-      <c r="AD50" s="70"/>
-      <c r="AE50" s="70"/>
-      <c r="AF50" s="70"/>
-      <c r="AG50" s="70"/>
-      <c r="AH50" s="70"/>
-    </row>
-    <row r="51" spans="2:34" ht="15.75" customHeight="1">
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="70"/>
-      <c r="P51" s="70"/>
-      <c r="Q51" s="70"/>
-      <c r="R51" s="70"/>
-      <c r="S51" s="70"/>
-      <c r="T51" s="70"/>
-      <c r="U51" s="70"/>
-      <c r="V51" s="70"/>
-      <c r="W51" s="70"/>
-      <c r="X51" s="70"/>
-      <c r="Y51" s="70"/>
-      <c r="Z51" s="70"/>
-      <c r="AA51" s="70"/>
-      <c r="AB51" s="70"/>
-      <c r="AC51" s="70"/>
-      <c r="AD51" s="70"/>
-      <c r="AE51" s="70"/>
-      <c r="AF51" s="70"/>
-      <c r="AG51" s="70"/>
-      <c r="AH51" s="70"/>
-    </row>
-    <row r="99" spans="2:34" ht="26.25">
-      <c r="B99" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" s="59"/>
-      <c r="D99" s="59"/>
-    </row>
-    <row r="100" spans="2:34" ht="13.5">
-      <c r="B100" s="59"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="59"/>
-    </row>
-    <row r="101" spans="2:34" ht="13.5">
-      <c r="B101" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="D101" s="59"/>
-    </row>
-    <row r="102" spans="2:34" ht="13.5">
-      <c r="B102" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="D102" s="59"/>
-    </row>
-    <row r="103" spans="2:34" ht="13.5">
-      <c r="B103" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C103" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="D103" s="59"/>
-    </row>
-    <row r="105" spans="2:34" ht="17.25">
-      <c r="B105" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="C105" s="64"/>
-      <c r="D105" s="65"/>
-      <c r="E105" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="F105" s="67"/>
-      <c r="G105" s="67"/>
-      <c r="H105" s="67"/>
-      <c r="I105" s="68"/>
-      <c r="J105" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="K105" s="67"/>
-      <c r="L105" s="67"/>
-      <c r="M105" s="67"/>
-      <c r="N105" s="68"/>
-      <c r="O105" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="P105" s="67"/>
-      <c r="Q105" s="67"/>
-      <c r="R105" s="67"/>
-      <c r="S105" s="68"/>
-      <c r="T105" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="U105" s="67"/>
-      <c r="V105" s="67"/>
-      <c r="W105" s="67"/>
-      <c r="X105" s="68"/>
-      <c r="Y105" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z105" s="67"/>
-      <c r="AA105" s="67"/>
-      <c r="AB105" s="67"/>
-      <c r="AC105" s="68"/>
-      <c r="AD105" s="96"/>
-      <c r="AE105" s="96"/>
-      <c r="AF105" s="96"/>
-      <c r="AG105" s="96"/>
-      <c r="AH105" s="96"/>
-    </row>
-    <row r="106" spans="2:34" ht="17.25">
-      <c r="B106" s="71"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="72"/>
-      <c r="E106" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="F106" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="G106" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="H106" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="I106" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="J106" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="K106" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="L106" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="M106" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="N106" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="O106" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="P106" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q106" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="R106" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="S106" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="T106" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="U106" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="V106" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="W106" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="X106" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y106" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z106" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA106" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB106" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC106" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD106" s="96"/>
-      <c r="AE106" s="96"/>
-      <c r="AF106" s="96"/>
-      <c r="AG106" s="96"/>
-      <c r="AH106" s="96"/>
-    </row>
-    <row r="107" spans="2:34" ht="17.25">
-      <c r="B107" s="75"/>
-      <c r="C107" s="76"/>
-      <c r="D107" s="77"/>
-      <c r="E107" s="73">
-        <v>29</v>
-      </c>
-      <c r="F107" s="73">
-        <v>30</v>
-      </c>
-      <c r="G107" s="73">
-        <v>31</v>
-      </c>
-      <c r="H107" s="73">
-        <v>1</v>
-      </c>
-      <c r="I107" s="73">
-        <v>2</v>
-      </c>
-      <c r="J107" s="73">
-        <v>5</v>
-      </c>
-      <c r="K107" s="73">
-        <v>6</v>
-      </c>
-      <c r="L107" s="73">
-        <v>7</v>
-      </c>
-      <c r="M107" s="73">
-        <v>8</v>
-      </c>
-      <c r="N107" s="73">
-        <v>9</v>
-      </c>
-      <c r="O107" s="73">
-        <v>12</v>
-      </c>
-      <c r="P107" s="73">
-        <v>13</v>
-      </c>
-      <c r="Q107" s="73">
-        <v>14</v>
-      </c>
-      <c r="R107" s="73">
-        <v>15</v>
-      </c>
-      <c r="S107" s="73">
-        <v>16</v>
-      </c>
-      <c r="T107" s="73">
-        <v>19</v>
-      </c>
-      <c r="U107" s="73">
-        <v>20</v>
-      </c>
-      <c r="V107" s="73">
-        <v>21</v>
-      </c>
-      <c r="W107" s="73">
-        <v>22</v>
-      </c>
-      <c r="X107" s="73">
-        <v>23</v>
-      </c>
-      <c r="Y107" s="73">
-        <v>26</v>
-      </c>
-      <c r="Z107" s="73">
-        <v>27</v>
-      </c>
-      <c r="AA107" s="73">
-        <v>28</v>
-      </c>
-      <c r="AB107" s="73">
-        <v>29</v>
-      </c>
-      <c r="AC107" s="73">
-        <v>30</v>
-      </c>
-      <c r="AD107" s="96"/>
-      <c r="AE107" s="96"/>
-      <c r="AF107" s="96"/>
-      <c r="AG107" s="96"/>
-      <c r="AH107" s="96"/>
-    </row>
-    <row r="108" spans="2:34" ht="13.5">
-      <c r="B108" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="C108" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="D108" s="68"/>
-      <c r="E108" s="81"/>
-      <c r="F108" s="80"/>
-      <c r="G108" s="80"/>
-      <c r="H108" s="80"/>
-      <c r="I108" s="80"/>
-      <c r="J108" s="80"/>
-      <c r="K108" s="80"/>
-      <c r="L108" s="80"/>
-      <c r="M108" s="80"/>
-      <c r="N108" s="80"/>
-      <c r="O108" s="80"/>
-      <c r="P108" s="80"/>
-      <c r="Q108" s="80"/>
-      <c r="R108" s="80"/>
-      <c r="S108" s="80"/>
-      <c r="T108" s="80"/>
-      <c r="U108" s="80"/>
-      <c r="V108" s="80"/>
-      <c r="W108" s="80"/>
-      <c r="X108" s="80"/>
-      <c r="Y108" s="80"/>
-      <c r="Z108" s="80"/>
-      <c r="AA108" s="80"/>
-      <c r="AB108" s="80"/>
-      <c r="AC108" s="80"/>
-    </row>
-    <row r="109" spans="2:34" ht="13.5">
-      <c r="B109" s="83"/>
-      <c r="C109" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="D109" s="68"/>
-      <c r="E109" s="84"/>
-      <c r="F109" s="80"/>
-      <c r="G109" s="80"/>
-      <c r="H109" s="80"/>
-      <c r="I109" s="80"/>
-      <c r="J109" s="80"/>
-      <c r="K109" s="80"/>
-      <c r="L109" s="80"/>
-      <c r="M109" s="80"/>
-      <c r="N109" s="80"/>
-      <c r="O109" s="80"/>
-      <c r="P109" s="80"/>
-      <c r="Q109" s="80"/>
-      <c r="R109" s="80"/>
-      <c r="S109" s="80"/>
-      <c r="T109" s="80"/>
-      <c r="U109" s="80"/>
-      <c r="V109" s="80"/>
-      <c r="W109" s="80"/>
-      <c r="X109" s="80"/>
-      <c r="Y109" s="80"/>
-      <c r="Z109" s="80"/>
-      <c r="AA109" s="80"/>
-      <c r="AB109" s="80"/>
-      <c r="AC109" s="80"/>
-    </row>
-    <row r="110" spans="2:34" ht="13.5">
-      <c r="B110" s="83"/>
-      <c r="C110" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="D110" s="68"/>
-      <c r="E110" s="85"/>
-      <c r="F110" s="85"/>
-      <c r="G110" s="85"/>
-      <c r="H110" s="85"/>
-      <c r="I110" s="85"/>
-      <c r="J110" s="80"/>
-      <c r="K110" s="80"/>
-      <c r="L110" s="80"/>
-      <c r="M110" s="80"/>
-      <c r="N110" s="80"/>
-      <c r="O110" s="80"/>
-      <c r="P110" s="80"/>
-      <c r="Q110" s="80"/>
-      <c r="R110" s="80"/>
-      <c r="S110" s="80"/>
-      <c r="T110" s="80"/>
-      <c r="U110" s="80"/>
-      <c r="V110" s="80"/>
-      <c r="W110" s="80"/>
-      <c r="X110" s="80"/>
-      <c r="Y110" s="80"/>
-      <c r="Z110" s="80"/>
-      <c r="AA110" s="80"/>
-      <c r="AB110" s="80"/>
-      <c r="AC110" s="80"/>
-    </row>
-    <row r="111" spans="2:34" ht="13.5">
-      <c r="B111" s="87"/>
-      <c r="C111" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="D111" s="68"/>
-      <c r="E111" s="86"/>
-      <c r="F111" s="86"/>
-      <c r="G111" s="86"/>
-      <c r="H111" s="86"/>
-      <c r="I111" s="86"/>
-      <c r="J111" s="80"/>
-      <c r="K111" s="80"/>
-      <c r="L111" s="80"/>
-      <c r="M111" s="80"/>
-      <c r="N111" s="80"/>
-      <c r="O111" s="80"/>
-      <c r="P111" s="80"/>
-      <c r="Q111" s="80"/>
-      <c r="R111" s="80"/>
-      <c r="S111" s="80"/>
-      <c r="T111" s="80"/>
-      <c r="U111" s="80"/>
-      <c r="V111" s="80"/>
-      <c r="W111" s="80"/>
-      <c r="X111" s="80"/>
-      <c r="Y111" s="80"/>
-      <c r="Z111" s="80"/>
-      <c r="AA111" s="80"/>
-      <c r="AB111" s="80"/>
-      <c r="AC111" s="80"/>
-    </row>
-    <row r="112" spans="2:34" ht="13.5">
-      <c r="B112" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="C112" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="D112" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="E112" s="81"/>
-      <c r="F112" s="81"/>
-      <c r="G112" s="81"/>
-      <c r="H112" s="81"/>
-      <c r="I112" s="81"/>
-      <c r="J112" s="80"/>
-      <c r="K112" s="80"/>
-      <c r="L112" s="80"/>
-      <c r="M112" s="80"/>
-      <c r="N112" s="80"/>
-      <c r="O112" s="80"/>
-      <c r="P112" s="80"/>
-      <c r="Q112" s="80"/>
-      <c r="R112" s="80"/>
-      <c r="S112" s="80"/>
-      <c r="T112" s="80"/>
-      <c r="U112" s="80"/>
-      <c r="V112" s="80"/>
-      <c r="W112" s="80"/>
-      <c r="X112" s="80"/>
-      <c r="Y112" s="80"/>
-      <c r="Z112" s="80"/>
-      <c r="AA112" s="80"/>
-      <c r="AB112" s="80"/>
-      <c r="AC112" s="80"/>
-    </row>
-    <row r="113" spans="2:29" ht="13.5">
-      <c r="B113" s="83"/>
-      <c r="C113" s="83"/>
-      <c r="D113" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="E113" s="84"/>
-      <c r="F113" s="80"/>
-      <c r="G113" s="80"/>
-      <c r="H113" s="80"/>
-      <c r="I113" s="80"/>
-      <c r="J113" s="80"/>
-      <c r="K113" s="80"/>
-      <c r="L113" s="80"/>
-      <c r="M113" s="80"/>
-      <c r="N113" s="80"/>
-      <c r="O113" s="80"/>
-      <c r="P113" s="80"/>
-      <c r="Q113" s="80"/>
-      <c r="R113" s="80"/>
-      <c r="S113" s="80"/>
-      <c r="T113" s="80"/>
-      <c r="U113" s="80"/>
-      <c r="V113" s="80"/>
-      <c r="W113" s="80"/>
-      <c r="X113" s="80"/>
-      <c r="Y113" s="80"/>
-      <c r="Z113" s="80"/>
-      <c r="AA113" s="80"/>
-      <c r="AB113" s="80"/>
-      <c r="AC113" s="80"/>
-    </row>
-    <row r="114" spans="2:29" ht="13.5">
-      <c r="B114" s="83"/>
-      <c r="C114" s="83"/>
-      <c r="D114" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="E114" s="80"/>
-      <c r="F114" s="80"/>
-      <c r="G114" s="80"/>
-      <c r="H114" s="80"/>
-      <c r="I114" s="80"/>
-      <c r="J114" s="80"/>
-      <c r="K114" s="80"/>
-      <c r="L114" s="80"/>
-      <c r="M114" s="80"/>
-      <c r="N114" s="80"/>
-      <c r="O114" s="80"/>
-      <c r="P114" s="80"/>
-      <c r="Q114" s="80"/>
-      <c r="R114" s="80"/>
-      <c r="S114" s="80"/>
-      <c r="T114" s="80"/>
-      <c r="U114" s="80"/>
-      <c r="V114" s="80"/>
-      <c r="W114" s="80"/>
-      <c r="X114" s="80"/>
-      <c r="Y114" s="80"/>
-      <c r="Z114" s="80"/>
-      <c r="AA114" s="80"/>
-      <c r="AB114" s="80"/>
-      <c r="AC114" s="80"/>
-    </row>
-    <row r="115" spans="2:29" ht="13.5">
-      <c r="B115" s="83"/>
-      <c r="C115" s="83"/>
-      <c r="D115" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="E115" s="80"/>
-      <c r="F115" s="80"/>
-      <c r="G115" s="80"/>
-      <c r="H115" s="80"/>
-      <c r="I115" s="80"/>
-      <c r="J115" s="80"/>
-      <c r="K115" s="86"/>
-      <c r="L115" s="86"/>
-      <c r="M115" s="86"/>
-      <c r="N115" s="80"/>
-      <c r="O115" s="80"/>
-      <c r="P115" s="80"/>
-      <c r="Q115" s="80"/>
-      <c r="R115" s="80"/>
-      <c r="S115" s="80"/>
-      <c r="T115" s="80"/>
-      <c r="U115" s="80"/>
-      <c r="V115" s="80"/>
-      <c r="W115" s="80"/>
-      <c r="X115" s="80"/>
-      <c r="Y115" s="80"/>
-      <c r="Z115" s="80"/>
-      <c r="AA115" s="80"/>
-      <c r="AB115" s="80"/>
-      <c r="AC115" s="80"/>
-    </row>
-    <row r="116" spans="2:29" ht="13.5">
-      <c r="B116" s="83"/>
-      <c r="C116" s="87"/>
-      <c r="D116" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="E116" s="80"/>
-      <c r="F116" s="80"/>
-      <c r="G116" s="80"/>
-      <c r="H116" s="80"/>
-      <c r="I116" s="80"/>
-      <c r="J116" s="80"/>
-      <c r="K116" s="80"/>
-      <c r="L116" s="80"/>
-      <c r="M116" s="91"/>
-      <c r="N116" s="91"/>
-      <c r="O116" s="91"/>
-      <c r="P116" s="80"/>
-      <c r="Q116" s="80"/>
-      <c r="R116" s="80"/>
-      <c r="S116" s="80"/>
-      <c r="T116" s="80"/>
-      <c r="U116" s="80"/>
-      <c r="V116" s="80"/>
-      <c r="W116" s="80"/>
-      <c r="X116" s="80"/>
-      <c r="Y116" s="80"/>
-      <c r="Z116" s="80"/>
-      <c r="AA116" s="80"/>
-      <c r="AB116" s="80"/>
-      <c r="AC116" s="80"/>
-    </row>
-    <row r="117" spans="2:29" ht="13.5">
-      <c r="B117" s="83"/>
-      <c r="C117" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="D117" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="E117" s="81"/>
-      <c r="F117" s="81"/>
-      <c r="G117" s="81"/>
-      <c r="H117" s="81"/>
-      <c r="I117" s="81"/>
-      <c r="J117" s="80"/>
-      <c r="K117" s="80"/>
-      <c r="L117" s="80"/>
-      <c r="M117" s="80"/>
-      <c r="N117" s="80"/>
-      <c r="O117" s="80"/>
-      <c r="P117" s="80"/>
-      <c r="Q117" s="80"/>
-      <c r="R117" s="80"/>
-      <c r="S117" s="80"/>
-      <c r="T117" s="80"/>
-      <c r="U117" s="80"/>
-      <c r="V117" s="80"/>
-      <c r="W117" s="80"/>
-      <c r="X117" s="80"/>
-      <c r="Y117" s="80"/>
-      <c r="Z117" s="80"/>
-      <c r="AA117" s="80"/>
-      <c r="AB117" s="80"/>
-      <c r="AC117" s="80"/>
-    </row>
-    <row r="118" spans="2:29" ht="13.5">
-      <c r="B118" s="83"/>
-      <c r="C118" s="83"/>
-      <c r="D118" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="E118" s="84"/>
-      <c r="F118" s="80"/>
-      <c r="G118" s="80"/>
-      <c r="H118" s="80"/>
-      <c r="I118" s="80"/>
-      <c r="J118" s="80"/>
-      <c r="K118" s="80"/>
-      <c r="L118" s="80"/>
-      <c r="M118" s="80"/>
-      <c r="N118" s="80"/>
-      <c r="O118" s="80"/>
-      <c r="P118" s="80"/>
-      <c r="Q118" s="80"/>
-      <c r="R118" s="80"/>
-      <c r="S118" s="80"/>
-      <c r="T118" s="80"/>
-      <c r="U118" s="80"/>
-      <c r="V118" s="80"/>
-      <c r="W118" s="80"/>
-      <c r="X118" s="80"/>
-      <c r="Y118" s="80"/>
-      <c r="Z118" s="80"/>
-      <c r="AA118" s="80"/>
-      <c r="AB118" s="80"/>
-      <c r="AC118" s="80"/>
-    </row>
-    <row r="119" spans="2:29" ht="13.5">
-      <c r="B119" s="83"/>
-      <c r="C119" s="83"/>
-      <c r="D119" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="E119" s="80"/>
-      <c r="F119" s="80"/>
-      <c r="G119" s="80"/>
-      <c r="H119" s="80"/>
-      <c r="I119" s="80"/>
-      <c r="J119" s="85"/>
-      <c r="K119" s="85"/>
-      <c r="L119" s="80"/>
-      <c r="M119" s="80"/>
-      <c r="N119" s="80"/>
-      <c r="O119" s="80"/>
-      <c r="P119" s="80"/>
-      <c r="Q119" s="80"/>
-      <c r="R119" s="80"/>
-      <c r="S119" s="80"/>
-      <c r="T119" s="80"/>
-      <c r="U119" s="80"/>
-      <c r="V119" s="80"/>
-      <c r="W119" s="80"/>
-      <c r="X119" s="80"/>
-      <c r="Y119" s="80"/>
-      <c r="Z119" s="80"/>
-      <c r="AA119" s="80"/>
-      <c r="AB119" s="80"/>
-      <c r="AC119" s="80"/>
-    </row>
-    <row r="120" spans="2:29" ht="13.5">
-      <c r="B120" s="83"/>
-      <c r="C120" s="83"/>
-      <c r="D120" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="E120" s="80"/>
-      <c r="F120" s="80"/>
-      <c r="G120" s="80"/>
-      <c r="H120" s="80"/>
-      <c r="I120" s="80"/>
-      <c r="J120" s="80"/>
-      <c r="K120" s="80"/>
-      <c r="L120" s="80"/>
-      <c r="M120" s="86"/>
-      <c r="N120" s="86"/>
-      <c r="O120" s="86"/>
-      <c r="P120" s="80"/>
-      <c r="Q120" s="80"/>
-      <c r="R120" s="80"/>
-      <c r="S120" s="80"/>
-      <c r="T120" s="80"/>
-      <c r="U120" s="80"/>
-      <c r="V120" s="80"/>
-      <c r="W120" s="80"/>
-      <c r="X120" s="80"/>
-      <c r="Y120" s="80"/>
-      <c r="Z120" s="80"/>
-      <c r="AA120" s="80"/>
-      <c r="AB120" s="80"/>
-      <c r="AC120" s="80"/>
-    </row>
-    <row r="121" spans="2:29" ht="13.5">
-      <c r="B121" s="83"/>
-      <c r="C121" s="87"/>
-      <c r="D121" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="E121" s="80"/>
-      <c r="F121" s="80"/>
-      <c r="G121" s="80"/>
-      <c r="H121" s="80"/>
-      <c r="I121" s="80"/>
-      <c r="J121" s="80"/>
-      <c r="K121" s="80"/>
-      <c r="L121" s="80"/>
-      <c r="M121" s="80"/>
-      <c r="N121" s="80"/>
-      <c r="O121" s="80"/>
-      <c r="P121" s="91"/>
-      <c r="Q121" s="91"/>
-      <c r="R121" s="91"/>
-      <c r="S121" s="91"/>
-      <c r="T121" s="80"/>
-      <c r="U121" s="80"/>
-      <c r="V121" s="80"/>
-      <c r="W121" s="80"/>
-      <c r="X121" s="80"/>
-      <c r="Y121" s="80"/>
-      <c r="Z121" s="80"/>
-      <c r="AA121" s="80"/>
-      <c r="AB121" s="80"/>
-      <c r="AC121" s="80"/>
-    </row>
-    <row r="122" spans="2:29" ht="13.5">
-      <c r="B122" s="83"/>
-      <c r="C122" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="D122" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="E122" s="81"/>
-      <c r="F122" s="81"/>
-      <c r="G122" s="81"/>
-      <c r="H122" s="81"/>
-      <c r="I122" s="81"/>
-      <c r="J122" s="80"/>
-      <c r="K122" s="80"/>
-      <c r="L122" s="80"/>
-      <c r="M122" s="80"/>
-      <c r="N122" s="80"/>
-      <c r="O122" s="80"/>
-      <c r="P122" s="80"/>
-      <c r="Q122" s="80"/>
-      <c r="R122" s="80"/>
-      <c r="S122" s="80"/>
-      <c r="T122" s="80"/>
-      <c r="U122" s="80"/>
-      <c r="V122" s="80"/>
-      <c r="W122" s="80"/>
-      <c r="X122" s="80"/>
-      <c r="Y122" s="80"/>
-      <c r="Z122" s="80"/>
-      <c r="AA122" s="80"/>
-      <c r="AB122" s="80"/>
-      <c r="AC122" s="80"/>
-    </row>
-    <row r="123" spans="2:29" ht="13.5">
-      <c r="B123" s="83"/>
-      <c r="C123" s="83"/>
-      <c r="D123" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="E123" s="84"/>
-      <c r="F123" s="80"/>
-      <c r="G123" s="80"/>
-      <c r="H123" s="80"/>
-      <c r="I123" s="80"/>
-      <c r="J123" s="80"/>
-      <c r="K123" s="80"/>
-      <c r="L123" s="80"/>
-      <c r="M123" s="80"/>
-      <c r="N123" s="80"/>
-      <c r="O123" s="80"/>
-      <c r="P123" s="80"/>
-      <c r="Q123" s="80"/>
-      <c r="R123" s="80"/>
-      <c r="S123" s="80"/>
-      <c r="T123" s="80"/>
-      <c r="U123" s="80"/>
-      <c r="V123" s="80"/>
-      <c r="W123" s="80"/>
-      <c r="X123" s="80"/>
-      <c r="Y123" s="80"/>
-      <c r="Z123" s="80"/>
-      <c r="AA123" s="80"/>
-      <c r="AB123" s="80"/>
-      <c r="AC123" s="80"/>
-    </row>
-    <row r="124" spans="2:29" ht="13.5">
-      <c r="B124" s="83"/>
-      <c r="C124" s="83"/>
-      <c r="D124" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="E124" s="80"/>
-      <c r="F124" s="80"/>
-      <c r="G124" s="80"/>
-      <c r="H124" s="80"/>
-      <c r="I124" s="80"/>
-      <c r="J124" s="80"/>
-      <c r="K124" s="80"/>
-      <c r="L124" s="85"/>
-      <c r="M124" s="85"/>
-      <c r="N124" s="80"/>
-      <c r="O124" s="80"/>
-      <c r="P124" s="80"/>
-      <c r="Q124" s="80"/>
-      <c r="R124" s="80"/>
-      <c r="S124" s="80"/>
-      <c r="T124" s="80"/>
-      <c r="U124" s="80"/>
-      <c r="V124" s="80"/>
-      <c r="W124" s="80"/>
-      <c r="X124" s="80"/>
-      <c r="Y124" s="80"/>
-      <c r="Z124" s="80"/>
-      <c r="AA124" s="80"/>
-      <c r="AB124" s="80"/>
-      <c r="AC124" s="80"/>
-    </row>
-    <row r="125" spans="2:29" ht="13.5">
-      <c r="B125" s="83"/>
-      <c r="C125" s="83"/>
-      <c r="D125" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="E125" s="80"/>
-      <c r="F125" s="80"/>
-      <c r="G125" s="80"/>
-      <c r="H125" s="80"/>
-      <c r="I125" s="80"/>
-      <c r="J125" s="80"/>
-      <c r="K125" s="80"/>
-      <c r="L125" s="80"/>
-      <c r="M125" s="80"/>
-      <c r="N125" s="80"/>
-      <c r="O125" s="86"/>
-      <c r="P125" s="86"/>
-      <c r="Q125" s="86"/>
-      <c r="R125" s="86"/>
-      <c r="S125" s="80"/>
-      <c r="T125" s="80"/>
-      <c r="U125" s="80"/>
-      <c r="V125" s="80"/>
-      <c r="W125" s="80"/>
-      <c r="X125" s="80"/>
-      <c r="Y125" s="80"/>
-      <c r="Z125" s="80"/>
-      <c r="AA125" s="80"/>
-      <c r="AB125" s="80"/>
-      <c r="AC125" s="80"/>
-    </row>
-    <row r="126" spans="2:29" ht="13.5">
-      <c r="B126" s="83"/>
-      <c r="C126" s="87"/>
-      <c r="D126" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="E126" s="80"/>
-      <c r="F126" s="80"/>
-      <c r="G126" s="80"/>
-      <c r="H126" s="80"/>
-      <c r="I126" s="80"/>
-      <c r="J126" s="80"/>
-      <c r="K126" s="80"/>
-      <c r="L126" s="80"/>
-      <c r="M126" s="80"/>
-      <c r="N126" s="80"/>
-      <c r="O126" s="80"/>
-      <c r="P126" s="80"/>
-      <c r="Q126" s="80"/>
-      <c r="R126" s="91"/>
-      <c r="S126" s="91"/>
-      <c r="T126" s="91"/>
-      <c r="U126" s="91"/>
-      <c r="V126" s="80"/>
-      <c r="W126" s="80"/>
-      <c r="X126" s="80"/>
-      <c r="Y126" s="80"/>
-      <c r="Z126" s="80"/>
-      <c r="AA126" s="80"/>
-      <c r="AB126" s="80"/>
-      <c r="AC126" s="80"/>
-    </row>
-    <row r="127" spans="2:29" ht="13.5">
-      <c r="B127" s="83"/>
-      <c r="C127" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="D127" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="E127" s="80"/>
-      <c r="F127" s="80"/>
-      <c r="G127" s="80"/>
-      <c r="H127" s="80"/>
-      <c r="I127" s="80"/>
-      <c r="J127" s="80"/>
-      <c r="K127" s="80"/>
-      <c r="L127" s="80"/>
-      <c r="M127" s="80"/>
-      <c r="N127" s="80"/>
-      <c r="O127" s="80"/>
-      <c r="P127" s="80"/>
-      <c r="Q127" s="80"/>
-      <c r="R127" s="80"/>
-      <c r="S127" s="80"/>
-      <c r="T127" s="80"/>
-      <c r="U127" s="80"/>
-      <c r="V127" s="80"/>
-      <c r="W127" s="80"/>
-      <c r="X127" s="80"/>
-      <c r="Y127" s="80"/>
-      <c r="Z127" s="80"/>
-      <c r="AA127" s="80"/>
-      <c r="AB127" s="80"/>
-      <c r="AC127" s="80"/>
-    </row>
-    <row r="128" spans="2:29" ht="13.5">
-      <c r="B128" s="83"/>
-      <c r="C128" s="83"/>
-      <c r="D128" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="E128" s="80"/>
-      <c r="F128" s="80"/>
-      <c r="G128" s="80"/>
-      <c r="H128" s="80"/>
-      <c r="I128" s="80"/>
-      <c r="J128" s="84"/>
-      <c r="K128" s="84"/>
-      <c r="L128" s="80"/>
-      <c r="M128" s="80"/>
-      <c r="N128" s="80"/>
-      <c r="O128" s="80"/>
-      <c r="P128" s="80"/>
-      <c r="Q128" s="80"/>
-      <c r="R128" s="80"/>
-      <c r="S128" s="80"/>
-      <c r="T128" s="80"/>
-      <c r="U128" s="80"/>
-      <c r="V128" s="80"/>
-      <c r="W128" s="80"/>
-      <c r="X128" s="80"/>
-      <c r="Y128" s="80"/>
-      <c r="Z128" s="80"/>
-      <c r="AA128" s="80"/>
-      <c r="AB128" s="80"/>
-      <c r="AC128" s="80"/>
-    </row>
-    <row r="129" spans="2:34" ht="13.5">
-      <c r="B129" s="83"/>
-      <c r="C129" s="83"/>
-      <c r="D129" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="E129" s="80"/>
-      <c r="F129" s="80"/>
-      <c r="G129" s="80"/>
-      <c r="H129" s="80"/>
-      <c r="I129" s="80"/>
-      <c r="J129" s="80"/>
-      <c r="K129" s="80"/>
-      <c r="L129" s="80"/>
-      <c r="M129" s="85"/>
-      <c r="N129" s="85"/>
-      <c r="O129" s="80"/>
-      <c r="P129" s="80"/>
-      <c r="Q129" s="80"/>
-      <c r="R129" s="80"/>
-      <c r="S129" s="80"/>
-      <c r="T129" s="80"/>
-      <c r="U129" s="80"/>
-      <c r="V129" s="80"/>
-      <c r="W129" s="80"/>
-      <c r="X129" s="80"/>
-      <c r="Y129" s="80"/>
-      <c r="Z129" s="80"/>
-      <c r="AA129" s="80"/>
-      <c r="AB129" s="80"/>
-      <c r="AC129" s="80"/>
-    </row>
-    <row r="130" spans="2:34" ht="13.5">
-      <c r="B130" s="83"/>
-      <c r="C130" s="83"/>
-      <c r="D130" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="E130" s="80"/>
-      <c r="F130" s="80"/>
-      <c r="G130" s="80"/>
-      <c r="H130" s="80"/>
-      <c r="I130" s="80"/>
-      <c r="J130" s="80"/>
-      <c r="K130" s="80"/>
-      <c r="L130" s="80"/>
-      <c r="M130" s="80"/>
-      <c r="N130" s="80"/>
-      <c r="O130" s="80"/>
-      <c r="P130" s="80"/>
-      <c r="Q130" s="80"/>
-      <c r="R130" s="86"/>
-      <c r="S130" s="86"/>
-      <c r="T130" s="86"/>
-      <c r="U130" s="86"/>
-      <c r="V130" s="86"/>
-      <c r="W130" s="80"/>
-      <c r="X130" s="80"/>
-      <c r="Y130" s="80"/>
-      <c r="Z130" s="80"/>
-      <c r="AA130" s="80"/>
-      <c r="AB130" s="80"/>
-      <c r="AC130" s="80"/>
-    </row>
-    <row r="131" spans="2:34" ht="13.5">
-      <c r="B131" s="83"/>
-      <c r="C131" s="87"/>
-      <c r="D131" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="E131" s="80"/>
-      <c r="F131" s="80"/>
-      <c r="G131" s="80"/>
-      <c r="H131" s="80"/>
-      <c r="I131" s="80"/>
-      <c r="J131" s="80"/>
-      <c r="K131" s="80"/>
-      <c r="L131" s="80"/>
-      <c r="M131" s="80"/>
-      <c r="N131" s="80"/>
-      <c r="O131" s="80"/>
-      <c r="P131" s="80"/>
-      <c r="Q131" s="80"/>
-      <c r="R131" s="80"/>
-      <c r="S131" s="80"/>
-      <c r="T131" s="80"/>
-      <c r="U131" s="91"/>
-      <c r="V131" s="91"/>
-      <c r="W131" s="91"/>
-      <c r="X131" s="91"/>
-      <c r="Y131" s="91"/>
-      <c r="Z131" s="80"/>
-      <c r="AA131" s="80"/>
-      <c r="AB131" s="80"/>
-      <c r="AC131" s="80"/>
-    </row>
-    <row r="132" spans="2:34" ht="13.5">
-      <c r="B132" s="83"/>
-      <c r="C132" s="97" t="s">
-        <v>61</v>
-      </c>
-      <c r="D132" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="E132" s="81"/>
-      <c r="F132" s="81"/>
-      <c r="G132" s="81"/>
-      <c r="H132" s="81"/>
-      <c r="I132" s="81"/>
-      <c r="J132" s="80"/>
-      <c r="K132" s="80"/>
-      <c r="L132" s="80"/>
-      <c r="M132" s="80"/>
-      <c r="N132" s="80"/>
-      <c r="O132" s="80"/>
-      <c r="P132" s="80"/>
-      <c r="Q132" s="80"/>
-      <c r="R132" s="80"/>
-      <c r="S132" s="80"/>
-      <c r="T132" s="80"/>
-      <c r="U132" s="80"/>
-      <c r="V132" s="80"/>
-      <c r="W132" s="80"/>
-      <c r="X132" s="80"/>
-      <c r="Y132" s="80"/>
-      <c r="Z132" s="80"/>
-      <c r="AA132" s="80"/>
-      <c r="AB132" s="80"/>
-      <c r="AC132" s="80"/>
-    </row>
-    <row r="133" spans="2:34" ht="13.5">
-      <c r="B133" s="83"/>
-      <c r="C133" s="83"/>
-      <c r="D133" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="E133" s="80"/>
-      <c r="F133" s="84"/>
-      <c r="G133" s="84"/>
-      <c r="H133" s="84"/>
-      <c r="I133" s="84"/>
-      <c r="J133" s="80"/>
-      <c r="K133" s="80"/>
-      <c r="L133" s="80"/>
-      <c r="M133" s="80"/>
-      <c r="N133" s="80"/>
-      <c r="O133" s="80"/>
-      <c r="P133" s="80"/>
-      <c r="Q133" s="80"/>
-      <c r="R133" s="80"/>
-      <c r="S133" s="80"/>
-      <c r="T133" s="80"/>
-      <c r="U133" s="80"/>
-      <c r="V133" s="80"/>
-      <c r="W133" s="80"/>
-      <c r="X133" s="80"/>
-      <c r="Y133" s="80"/>
-      <c r="Z133" s="80"/>
-      <c r="AA133" s="80"/>
-      <c r="AB133" s="80"/>
-      <c r="AC133" s="80"/>
-    </row>
-    <row r="134" spans="2:34" ht="13.5">
-      <c r="B134" s="83"/>
-      <c r="C134" s="83"/>
-      <c r="D134" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="E134" s="80"/>
-      <c r="F134" s="80"/>
-      <c r="G134" s="80"/>
-      <c r="H134" s="80"/>
-      <c r="I134" s="80"/>
-      <c r="J134" s="80"/>
-      <c r="K134" s="85"/>
-      <c r="L134" s="85"/>
-      <c r="M134" s="85"/>
-      <c r="N134" s="85"/>
-      <c r="O134" s="85"/>
-      <c r="P134" s="85"/>
-      <c r="Q134" s="80"/>
-      <c r="R134" s="80"/>
-      <c r="S134" s="80"/>
-      <c r="T134" s="80"/>
-      <c r="U134" s="80"/>
-      <c r="V134" s="80"/>
-      <c r="W134" s="80"/>
-      <c r="X134" s="80"/>
-      <c r="Y134" s="80"/>
-      <c r="Z134" s="80"/>
-      <c r="AA134" s="80"/>
-      <c r="AB134" s="80"/>
-      <c r="AC134" s="80"/>
-    </row>
-    <row r="135" spans="2:34" ht="13.5">
-      <c r="B135" s="83"/>
-      <c r="C135" s="83"/>
-      <c r="D135" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="E135" s="80"/>
-      <c r="F135" s="80"/>
-      <c r="G135" s="80"/>
-      <c r="H135" s="80"/>
-      <c r="I135" s="80"/>
-      <c r="J135" s="80"/>
-      <c r="K135" s="80"/>
-      <c r="L135" s="86"/>
-      <c r="M135" s="86"/>
-      <c r="N135" s="86"/>
-      <c r="O135" s="86"/>
-      <c r="P135" s="86"/>
-      <c r="Q135" s="86"/>
-      <c r="R135" s="86"/>
-      <c r="S135" s="86"/>
-      <c r="T135" s="80"/>
-      <c r="U135" s="80"/>
-      <c r="V135" s="80"/>
-      <c r="W135" s="80"/>
-      <c r="X135" s="80"/>
-      <c r="Y135" s="80"/>
-      <c r="Z135" s="80"/>
-      <c r="AA135" s="80"/>
-      <c r="AB135" s="80"/>
-      <c r="AC135" s="80"/>
-    </row>
-    <row r="136" spans="2:34" ht="13.5">
-      <c r="B136" s="83"/>
-      <c r="C136" s="87"/>
-      <c r="D136" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="E136" s="80"/>
-      <c r="F136" s="80"/>
-      <c r="G136" s="80"/>
-      <c r="H136" s="80"/>
-      <c r="I136" s="80"/>
-      <c r="J136" s="80"/>
-      <c r="K136" s="80"/>
-      <c r="L136" s="80"/>
-      <c r="M136" s="80"/>
-      <c r="N136" s="80"/>
-      <c r="O136" s="91"/>
-      <c r="P136" s="91"/>
-      <c r="Q136" s="91"/>
-      <c r="R136" s="91"/>
-      <c r="S136" s="91"/>
-      <c r="T136" s="91"/>
-      <c r="U136" s="91"/>
-      <c r="V136" s="91"/>
-      <c r="W136" s="91"/>
-      <c r="X136" s="91"/>
-      <c r="Y136" s="80"/>
-      <c r="Z136" s="80"/>
-      <c r="AA136" s="80"/>
-      <c r="AB136" s="80"/>
-      <c r="AC136" s="80"/>
-    </row>
-    <row r="137" spans="2:34" ht="13.5">
-      <c r="B137" s="83"/>
-      <c r="C137" s="97" t="s">
-        <v>62</v>
-      </c>
-      <c r="D137" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="E137" s="80"/>
-      <c r="F137" s="80"/>
-      <c r="G137" s="80"/>
-      <c r="H137" s="80"/>
-      <c r="I137" s="80"/>
-      <c r="J137" s="80"/>
-      <c r="K137" s="80"/>
-      <c r="L137" s="80"/>
-      <c r="M137" s="80"/>
-      <c r="N137" s="80"/>
-      <c r="O137" s="81"/>
-      <c r="P137" s="81"/>
-      <c r="Q137" s="81"/>
-      <c r="R137" s="81"/>
-      <c r="S137" s="81"/>
-      <c r="T137" s="80"/>
-      <c r="U137" s="80"/>
-      <c r="V137" s="80"/>
-      <c r="W137" s="80"/>
-      <c r="X137" s="80"/>
-      <c r="Y137" s="80"/>
-      <c r="Z137" s="80"/>
-      <c r="AA137" s="80"/>
-      <c r="AB137" s="80"/>
-      <c r="AC137" s="80"/>
-    </row>
-    <row r="138" spans="2:34" ht="13.5">
-      <c r="B138" s="83"/>
-      <c r="C138" s="83"/>
-      <c r="D138" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="E138" s="84"/>
-      <c r="F138" s="84"/>
-      <c r="G138" s="84"/>
-      <c r="H138" s="84"/>
-      <c r="I138" s="84"/>
-      <c r="J138" s="80"/>
-      <c r="K138" s="80"/>
-      <c r="L138" s="80"/>
-      <c r="M138" s="80"/>
-      <c r="N138" s="80"/>
-      <c r="O138" s="80"/>
-      <c r="P138" s="80"/>
-      <c r="Q138" s="80"/>
-      <c r="R138" s="80"/>
-      <c r="S138" s="80"/>
-      <c r="T138" s="80"/>
-      <c r="U138" s="80"/>
-      <c r="V138" s="80"/>
-      <c r="W138" s="80"/>
-      <c r="X138" s="80"/>
-      <c r="Y138" s="80"/>
-      <c r="Z138" s="80"/>
-      <c r="AA138" s="80"/>
-      <c r="AB138" s="80"/>
-      <c r="AC138" s="80"/>
-    </row>
-    <row r="139" spans="2:34" ht="13.5">
-      <c r="B139" s="83"/>
-      <c r="C139" s="83"/>
-      <c r="D139" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="E139" s="80"/>
-      <c r="F139" s="80"/>
-      <c r="G139" s="80"/>
-      <c r="H139" s="80"/>
-      <c r="I139" s="80"/>
-      <c r="J139" s="80"/>
-      <c r="K139" s="80"/>
-      <c r="L139" s="80"/>
-      <c r="M139" s="80"/>
-      <c r="N139" s="80"/>
-      <c r="O139" s="80"/>
-      <c r="P139" s="80"/>
-      <c r="Q139" s="80"/>
-      <c r="R139" s="80"/>
-      <c r="S139" s="80"/>
-      <c r="T139" s="80"/>
-      <c r="U139" s="80"/>
-      <c r="V139" s="80"/>
-      <c r="W139" s="86"/>
-      <c r="X139" s="86"/>
-      <c r="Y139" s="86"/>
-      <c r="Z139" s="86"/>
-      <c r="AA139" s="86"/>
-      <c r="AB139" s="86"/>
-      <c r="AC139" s="86"/>
-      <c r="AD139" s="98"/>
-      <c r="AE139" s="98"/>
-      <c r="AF139" s="98"/>
-      <c r="AG139" s="98"/>
-      <c r="AH139" s="98"/>
-    </row>
-    <row r="140" spans="2:34" ht="13.5">
-      <c r="B140" s="87"/>
-      <c r="C140" s="87"/>
-      <c r="D140" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="E140" s="80"/>
-      <c r="F140" s="80"/>
-      <c r="G140" s="80"/>
-      <c r="H140" s="80"/>
-      <c r="I140" s="80"/>
-      <c r="J140" s="80"/>
-      <c r="K140" s="80"/>
-      <c r="L140" s="80"/>
-      <c r="M140" s="80"/>
-      <c r="N140" s="80"/>
-      <c r="O140" s="80"/>
-      <c r="P140" s="80"/>
-      <c r="Q140" s="80"/>
-      <c r="R140" s="80"/>
-      <c r="S140" s="80"/>
-      <c r="T140" s="80"/>
-      <c r="U140" s="80"/>
-      <c r="V140" s="80"/>
-      <c r="W140" s="80"/>
-      <c r="X140" s="80"/>
-      <c r="Y140" s="80"/>
-      <c r="Z140" s="80"/>
-      <c r="AA140" s="91"/>
-      <c r="AB140" s="91"/>
-      <c r="AC140" s="91"/>
-      <c r="AD140" s="99"/>
-      <c r="AE140" s="99"/>
-      <c r="AF140" s="99"/>
-      <c r="AG140" s="99"/>
-      <c r="AH140" s="99"/>
-    </row>
-    <row r="141" spans="2:34" ht="13.5">
-      <c r="B141" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="C141" s="65"/>
-      <c r="D141" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="E141" s="80"/>
-      <c r="F141" s="80"/>
-      <c r="G141" s="80"/>
-      <c r="H141" s="81"/>
-      <c r="I141" s="81"/>
-      <c r="J141" s="81"/>
-      <c r="K141" s="81"/>
-      <c r="L141" s="81"/>
-      <c r="M141" s="81"/>
-      <c r="N141" s="81"/>
-      <c r="O141" s="80"/>
-      <c r="P141" s="80"/>
-      <c r="Q141" s="80"/>
-      <c r="R141" s="80"/>
-      <c r="S141" s="80"/>
-      <c r="T141" s="80"/>
-      <c r="U141" s="80"/>
-      <c r="V141" s="80"/>
-      <c r="W141" s="80"/>
-      <c r="X141" s="80"/>
-      <c r="Y141" s="80"/>
-      <c r="Z141" s="80"/>
-      <c r="AA141" s="80"/>
-      <c r="AB141" s="80"/>
-      <c r="AC141" s="80"/>
-    </row>
-    <row r="142" spans="2:34" ht="13.5">
-      <c r="B142" s="71"/>
-      <c r="C142" s="72"/>
-      <c r="D142" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="E142" s="84"/>
-      <c r="F142" s="84"/>
-      <c r="G142" s="84"/>
-      <c r="H142" s="84"/>
-      <c r="I142" s="84"/>
-      <c r="J142" s="80"/>
-      <c r="K142" s="80"/>
-      <c r="L142" s="80"/>
-      <c r="M142" s="80"/>
-      <c r="N142" s="80"/>
-      <c r="O142" s="80"/>
-      <c r="P142" s="80"/>
-      <c r="Q142" s="80"/>
-      <c r="R142" s="80"/>
-      <c r="S142" s="80"/>
-      <c r="T142" s="80"/>
-      <c r="U142" s="80"/>
-      <c r="V142" s="80"/>
-      <c r="W142" s="80"/>
-      <c r="X142" s="80"/>
-      <c r="Y142" s="80"/>
-      <c r="Z142" s="80"/>
-      <c r="AA142" s="80"/>
-      <c r="AB142" s="80"/>
-      <c r="AC142" s="80"/>
-    </row>
-    <row r="143" spans="2:34" ht="13.5">
-      <c r="B143" s="71"/>
-      <c r="C143" s="72"/>
-      <c r="D143" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="E143" s="80"/>
-      <c r="F143" s="80"/>
-      <c r="G143" s="80"/>
-      <c r="H143" s="80"/>
-      <c r="I143" s="80"/>
-      <c r="J143" s="85"/>
-      <c r="K143" s="85"/>
-      <c r="L143" s="85"/>
-      <c r="M143" s="85"/>
-      <c r="N143" s="80"/>
-      <c r="O143" s="80"/>
-      <c r="P143" s="80"/>
-      <c r="Q143" s="80"/>
-      <c r="R143" s="80"/>
-      <c r="S143" s="80"/>
-      <c r="T143" s="80"/>
-      <c r="U143" s="80"/>
-      <c r="V143" s="80"/>
-      <c r="W143" s="80"/>
-      <c r="X143" s="80"/>
-      <c r="Y143" s="80"/>
-      <c r="Z143" s="80"/>
-      <c r="AA143" s="80"/>
-      <c r="AB143" s="80"/>
-      <c r="AC143" s="80"/>
-    </row>
-    <row r="144" spans="2:34" ht="13.5">
-      <c r="B144" s="75"/>
-      <c r="C144" s="77"/>
-      <c r="D144" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="E144" s="80"/>
-      <c r="F144" s="80"/>
-      <c r="G144" s="80"/>
-      <c r="H144" s="80"/>
-      <c r="I144" s="80"/>
-      <c r="J144" s="80"/>
-      <c r="K144" s="80"/>
-      <c r="L144" s="80"/>
-      <c r="M144" s="80"/>
-      <c r="N144" s="80"/>
-      <c r="O144" s="80"/>
-      <c r="P144" s="80"/>
-      <c r="Q144" s="80"/>
-      <c r="R144" s="80"/>
-      <c r="S144" s="80"/>
-      <c r="T144" s="80"/>
-      <c r="U144" s="91"/>
-      <c r="V144" s="91"/>
-      <c r="W144" s="91"/>
-      <c r="X144" s="91"/>
-      <c r="Y144" s="91"/>
-      <c r="Z144" s="91"/>
-      <c r="AA144" s="91"/>
-      <c r="AB144" s="91"/>
-      <c r="AC144" s="91"/>
-      <c r="AD144" s="99"/>
-      <c r="AE144" s="99"/>
-      <c r="AF144" s="99"/>
-      <c r="AG144" s="99"/>
-      <c r="AH144" s="99"/>
-    </row>
-    <row r="145" spans="2:29" ht="13.5">
-      <c r="B145" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="C145" s="67"/>
-      <c r="D145" s="68"/>
-      <c r="E145" s="80"/>
-      <c r="F145" s="80"/>
-      <c r="G145" s="80"/>
-      <c r="H145" s="80"/>
-      <c r="I145" s="80"/>
-      <c r="J145" s="80"/>
-      <c r="K145" s="80"/>
-      <c r="L145" s="80"/>
-      <c r="M145" s="80"/>
-      <c r="N145" s="80"/>
-      <c r="O145" s="80"/>
-      <c r="P145" s="80"/>
-      <c r="Q145" s="80"/>
-      <c r="R145" s="80"/>
-      <c r="S145" s="80"/>
-      <c r="T145" s="80"/>
-      <c r="U145" s="80"/>
-      <c r="V145" s="80"/>
-      <c r="W145" s="80"/>
-      <c r="X145" s="80"/>
-      <c r="Y145" s="80"/>
-      <c r="Z145" s="80"/>
-      <c r="AA145" s="80"/>
-      <c r="AB145" s="80"/>
-      <c r="AC145" s="80"/>
+      <c r="C145" s="126"/>
+      <c r="D145" s="114"/>
+      <c r="E145" s="41"/>
+      <c r="F145" s="41"/>
+      <c r="G145" s="41"/>
+      <c r="H145" s="41"/>
+      <c r="I145" s="41"/>
+      <c r="J145" s="41"/>
+      <c r="K145" s="41"/>
+      <c r="L145" s="41"/>
+      <c r="M145" s="41"/>
+      <c r="N145" s="41"/>
+      <c r="O145" s="41"/>
+      <c r="P145" s="41"/>
+      <c r="Q145" s="41"/>
+      <c r="R145" s="41"/>
+      <c r="S145" s="41"/>
+      <c r="T145" s="41"/>
+      <c r="U145" s="41"/>
+      <c r="V145" s="41"/>
+      <c r="W145" s="41"/>
+      <c r="X145" s="41"/>
+      <c r="Y145" s="41"/>
+      <c r="Z145" s="41"/>
+      <c r="AA145" s="41"/>
+      <c r="AB145" s="41"/>
+      <c r="AC145" s="41"/>
+      <c r="AD145" s="41"/>
+      <c r="AE145" s="41"/>
+      <c r="AF145" s="41"/>
+      <c r="AG145" s="41"/>
+      <c r="AH145" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:C116"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="C137:C140"/>
-    <mergeCell ref="B141:C144"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B112:B140"/>
-    <mergeCell ref="B8:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B43:AH51"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="C36:C39"/>
+  <mergeCells count="42">
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="AD105:AH105"/>
     <mergeCell ref="Y8:AC8"/>
     <mergeCell ref="AD8:AH8"/>
     <mergeCell ref="B11:B15"/>
@@ -8521,8 +8869,29 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J8:N8"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B43:AH51"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="B8:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="C137:C140"/>
+    <mergeCell ref="B141:C144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B112:B140"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="C117:C121"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="C127:C131"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
